--- a/labels/phenotype_labels.xlsx
+++ b/labels/phenotype_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavlina/Documents/Helsinki/2nd_Semester/DS_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavlina/Documents/Helsinki/2nd_Semester/DS_project/repo/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898E88A-5A52-DA42-AF33-09935BD962C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518C6B7-2BD4-A248-97E4-7BB42D520893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13000" yWindow="-28300" windowWidth="22800" windowHeight="28300" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">birch_labels_final!$A$1:$H$401</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
   <si>
     <t>filename</t>
   </si>
@@ -1952,6 +1965,180 @@
   </si>
   <si>
     <t>IMG_9999 2.jpeg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_1.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_2.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_3.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_4.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_5.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_6.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_7.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_8.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_9.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_10.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_11.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_12.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_13.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_14.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_15.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_16.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_17.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_18.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_19.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_20.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_21.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_22.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_23.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_24.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_25.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_26.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_27.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_28.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_29.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_30.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_31.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_32.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_33.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_34.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_35.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_36.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_37.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_38.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_39.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_40.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_41.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_42.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_43.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_44.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_45.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_46.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_47.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_48.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_49.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_50.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_51.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_52.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_53.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_54.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_55.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_56.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_57.jpg</t>
+  </si>
+  <si>
+    <t>Sampo_7th_March_58.jpg</t>
   </si>
 </sst>
 </file>
@@ -2795,18 +2982,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491470B8-0343-C542-AE89-86889CF720D3}">
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -17411,6 +17598,296 @@
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/labels/phenotype_labels.xlsx
+++ b/labels/phenotype_labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavlina/Documents/Helsinki/2nd_Semester/DS_project/repo/labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoniemelainen/branchphenotyper/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518C6B7-2BD4-A248-97E4-7BB42D520893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CC755-91CD-9B42-AB3C-6D9CC9CC2EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13000" yWindow="-28300" windowWidth="22800" windowHeight="28300" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
+    <workbookView xWindow="-76400" yWindow="-13120" windowWidth="38120" windowHeight="39220" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="birch_labels_final" sheetId="1" r:id="rId1"/>
@@ -2605,8 +2605,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2982,18 +2983,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491470B8-0343-C542-AE89-86889CF720D3}">
-  <dimension ref="A1:H694"/>
+  <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B635" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E695" sqref="E695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3035,7 +3037,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.7</v>
       </c>
       <c r="F2">
@@ -3061,7 +3063,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.75</v>
       </c>
       <c r="F3">
@@ -3087,7 +3089,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.75</v>
       </c>
       <c r="F4">
@@ -3113,7 +3115,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.3</v>
       </c>
       <c r="F5">
@@ -3139,7 +3141,7 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.75</v>
       </c>
       <c r="F6">
@@ -3165,7 +3167,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.5</v>
       </c>
       <c r="F7">
@@ -3191,7 +3193,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.35</v>
       </c>
       <c r="F8">
@@ -3217,7 +3219,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.45</v>
       </c>
       <c r="F9">
@@ -3243,7 +3245,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.4</v>
       </c>
       <c r="F10">
@@ -3269,7 +3271,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.65</v>
       </c>
       <c r="F11">
@@ -3295,7 +3297,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.85</v>
       </c>
       <c r="F12">
@@ -3321,7 +3323,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.7</v>
       </c>
       <c r="F13">
@@ -3347,7 +3349,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.45</v>
       </c>
       <c r="F14">
@@ -3373,7 +3375,7 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.4</v>
       </c>
       <c r="F15">
@@ -3399,7 +3401,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.75</v>
       </c>
       <c r="F16">
@@ -3425,7 +3427,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.3</v>
       </c>
       <c r="F17">
@@ -3451,7 +3453,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.3</v>
       </c>
       <c r="F18">
@@ -3477,7 +3479,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.4</v>
       </c>
       <c r="F19">
@@ -3503,7 +3505,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.7</v>
       </c>
       <c r="F20">
@@ -3529,7 +3531,7 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.5</v>
       </c>
       <c r="F21">
@@ -3555,7 +3557,7 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.7</v>
       </c>
       <c r="F22">
@@ -3581,7 +3583,7 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.5</v>
       </c>
       <c r="F23">
@@ -3607,7 +3609,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24">
@@ -3633,7 +3635,7 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.85</v>
       </c>
       <c r="F25">
@@ -3659,7 +3661,7 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.45</v>
       </c>
       <c r="F26">
@@ -3685,7 +3687,7 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.65</v>
       </c>
       <c r="F27">
@@ -3711,7 +3713,7 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.95</v>
       </c>
       <c r="F28">
@@ -3737,7 +3739,7 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.65</v>
       </c>
       <c r="F29">
@@ -3763,7 +3765,7 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.7</v>
       </c>
       <c r="F30">
@@ -3789,7 +3791,7 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.8</v>
       </c>
       <c r="F31">
@@ -3815,7 +3817,7 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.7</v>
       </c>
       <c r="F32">
@@ -3841,7 +3843,7 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.4</v>
       </c>
       <c r="F33">
@@ -3867,7 +3869,7 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.7</v>
       </c>
       <c r="F34">
@@ -3893,7 +3895,7 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0.6</v>
       </c>
       <c r="F35">
@@ -3919,7 +3921,7 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F36">
@@ -3945,7 +3947,7 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.4</v>
       </c>
       <c r="F37">
@@ -3971,7 +3973,7 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.5</v>
       </c>
       <c r="F38">
@@ -3997,7 +3999,7 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.5</v>
       </c>
       <c r="F39">
@@ -4023,7 +4025,7 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.45</v>
       </c>
       <c r="F40">
@@ -4049,7 +4051,7 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.4</v>
       </c>
       <c r="F41">
@@ -4075,7 +4077,7 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0.45</v>
       </c>
       <c r="F42">
@@ -4101,7 +4103,7 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.7</v>
       </c>
       <c r="F43">
@@ -4127,7 +4129,7 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0.8</v>
       </c>
       <c r="F44">
@@ -4153,7 +4155,7 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0.65</v>
       </c>
       <c r="F45">
@@ -4179,7 +4181,7 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0.9</v>
       </c>
       <c r="F46">
@@ -4205,7 +4207,7 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>0.9</v>
       </c>
       <c r="F47">
@@ -4231,7 +4233,7 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0.75</v>
       </c>
       <c r="F48">
@@ -4257,7 +4259,7 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F49">
@@ -4283,7 +4285,7 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0.65</v>
       </c>
       <c r="F50">
@@ -4309,7 +4311,7 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0.2</v>
       </c>
       <c r="F51">
@@ -4335,7 +4337,7 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0.45</v>
       </c>
       <c r="F52">
@@ -4361,7 +4363,7 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>0.95</v>
       </c>
       <c r="F53">
@@ -4387,7 +4389,7 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>0.7</v>
       </c>
       <c r="F54">
@@ -4413,7 +4415,7 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>0.85</v>
       </c>
       <c r="F55">
@@ -4439,7 +4441,7 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56">
@@ -4465,7 +4467,7 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>0.95</v>
       </c>
       <c r="F57">
@@ -4491,7 +4493,7 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>0.7</v>
       </c>
       <c r="F58">
@@ -4517,7 +4519,7 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>0.9</v>
       </c>
       <c r="F59">
@@ -4543,7 +4545,7 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>0.4</v>
       </c>
       <c r="F60">
@@ -4569,7 +4571,7 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>0.3</v>
       </c>
       <c r="F61">
@@ -4595,7 +4597,7 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>0.4</v>
       </c>
       <c r="F62">
@@ -4621,7 +4623,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>0.5</v>
       </c>
       <c r="F63">
@@ -4647,7 +4649,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>0.8</v>
       </c>
       <c r="F64">
@@ -4673,7 +4675,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>0.6</v>
       </c>
       <c r="F65">
@@ -4699,7 +4701,7 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>0.9</v>
       </c>
       <c r="F66">
@@ -4725,7 +4727,7 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>0.7</v>
       </c>
       <c r="F67">
@@ -4751,7 +4753,7 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>0.7</v>
       </c>
       <c r="F68">
@@ -4777,7 +4779,7 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>0.7</v>
       </c>
       <c r="F69">
@@ -4803,7 +4805,7 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>0.35</v>
       </c>
       <c r="F70">
@@ -4829,7 +4831,7 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>0.7</v>
       </c>
       <c r="F71">
@@ -4855,7 +4857,7 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>0.45</v>
       </c>
       <c r="F72">
@@ -4881,7 +4883,7 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>0.3</v>
       </c>
       <c r="F73">
@@ -4907,7 +4909,7 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>0.35</v>
       </c>
       <c r="F74">
@@ -4933,7 +4935,7 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>0.65</v>
       </c>
       <c r="F75">
@@ -4959,7 +4961,7 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>0.35</v>
       </c>
       <c r="F76">
@@ -4985,7 +4987,7 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F77">
@@ -5011,7 +5013,7 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>0.6</v>
       </c>
       <c r="F78">
@@ -5037,7 +5039,7 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>0.6</v>
       </c>
       <c r="F79">
@@ -5063,7 +5065,7 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>0.75</v>
       </c>
       <c r="F80">
@@ -5089,7 +5091,7 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>0.5</v>
       </c>
       <c r="F81">
@@ -5115,7 +5117,7 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>0.3</v>
       </c>
       <c r="F82">
@@ -5141,7 +5143,7 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>0.65</v>
       </c>
       <c r="F83">
@@ -5167,7 +5169,7 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>0.65</v>
       </c>
       <c r="F84">
@@ -5193,7 +5195,7 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>0.7</v>
       </c>
       <c r="F85">
@@ -5219,7 +5221,7 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>0.7</v>
       </c>
       <c r="F86">
@@ -5245,7 +5247,7 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>0.7</v>
       </c>
       <c r="F87">
@@ -5271,7 +5273,7 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>0.3</v>
       </c>
       <c r="F88">
@@ -5297,7 +5299,7 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>0.5</v>
       </c>
       <c r="F89">
@@ -5323,7 +5325,7 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>0.6</v>
       </c>
       <c r="F90">
@@ -5349,7 +5351,7 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>0.5</v>
       </c>
       <c r="F91">
@@ -5375,7 +5377,7 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>0.6</v>
       </c>
       <c r="F92">
@@ -5401,7 +5403,7 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>0.6</v>
       </c>
       <c r="F93">
@@ -5427,7 +5429,7 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>0.65</v>
       </c>
       <c r="F94">
@@ -5453,7 +5455,7 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F95">
@@ -5479,7 +5481,7 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>0.3</v>
       </c>
       <c r="F96">
@@ -5505,7 +5507,7 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>0.5</v>
       </c>
       <c r="F97">
@@ -5531,7 +5533,7 @@
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>0.3</v>
       </c>
       <c r="F98">
@@ -5557,7 +5559,7 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>0.6</v>
       </c>
       <c r="F99">
@@ -5583,7 +5585,7 @@
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>0.65</v>
       </c>
       <c r="F100">
@@ -5609,7 +5611,7 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <v>0.6</v>
       </c>
       <c r="F101">
@@ -5635,7 +5637,7 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>0.45</v>
       </c>
       <c r="F102">
@@ -5661,7 +5663,7 @@
       <c r="D103">
         <v>2</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>1</v>
       </c>
       <c r="F103">
@@ -5687,7 +5689,7 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>0.5</v>
       </c>
       <c r="F104">
@@ -5713,7 +5715,7 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <v>0.4</v>
       </c>
       <c r="F105">
@@ -5739,7 +5741,7 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>0.3</v>
       </c>
       <c r="F106">
@@ -5765,7 +5767,7 @@
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>0.7</v>
       </c>
       <c r="F107">
@@ -5791,7 +5793,7 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>0.7</v>
       </c>
       <c r="F108">
@@ -5817,7 +5819,7 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>0.75</v>
       </c>
       <c r="F109">
@@ -5843,7 +5845,7 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>0.75</v>
       </c>
       <c r="F110">
@@ -5869,7 +5871,7 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <v>0.45</v>
       </c>
       <c r="F111">
@@ -5895,7 +5897,7 @@
       <c r="D112">
         <v>1</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <v>0.5</v>
       </c>
       <c r="F112">
@@ -5921,7 +5923,7 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>0.4</v>
       </c>
       <c r="F113">
@@ -5947,7 +5949,7 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114">
@@ -5973,7 +5975,7 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <v>0.5</v>
       </c>
       <c r="F115">
@@ -5999,7 +6001,7 @@
       <c r="D116">
         <v>2</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <v>0.4</v>
       </c>
       <c r="F116">
@@ -6025,7 +6027,7 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <v>0.6</v>
       </c>
       <c r="F117">
@@ -6051,7 +6053,7 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>0.75</v>
       </c>
       <c r="F118">
@@ -6077,7 +6079,7 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F119">
@@ -6103,7 +6105,7 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>0.4</v>
       </c>
       <c r="F120">
@@ -6129,7 +6131,7 @@
       <c r="D121">
         <v>2</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>0.5</v>
       </c>
       <c r="F121">
@@ -6155,7 +6157,7 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>0.5</v>
       </c>
       <c r="F122">
@@ -6181,7 +6183,7 @@
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F123">
@@ -6207,7 +6209,7 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>0.6</v>
       </c>
       <c r="F124">
@@ -6233,7 +6235,7 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>0.6</v>
       </c>
       <c r="F125">
@@ -6259,7 +6261,7 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>0.75</v>
       </c>
       <c r="F126">
@@ -6285,7 +6287,7 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>0.45</v>
       </c>
       <c r="F127">
@@ -6311,7 +6313,7 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>0.45</v>
       </c>
       <c r="F128">
@@ -6337,7 +6339,7 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>0.85</v>
       </c>
       <c r="F129">
@@ -6363,7 +6365,7 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>0.5</v>
       </c>
       <c r="F130">
@@ -6389,7 +6391,7 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>0.45</v>
       </c>
       <c r="F131">
@@ -6415,7 +6417,7 @@
       <c r="D132">
         <v>4</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>1.6</v>
       </c>
       <c r="F132">
@@ -6441,7 +6443,7 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>1.3</v>
       </c>
       <c r="F133">
@@ -6467,7 +6469,7 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <v>1.6</v>
       </c>
       <c r="F134">
@@ -6493,7 +6495,7 @@
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>1.7</v>
       </c>
       <c r="F135">
@@ -6519,7 +6521,7 @@
       <c r="D136">
         <v>3</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F136">
@@ -6545,7 +6547,7 @@
       <c r="D137">
         <v>3</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>1.25</v>
       </c>
       <c r="F137">
@@ -6571,7 +6573,7 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>1.2</v>
       </c>
       <c r="F138">
@@ -6597,7 +6599,7 @@
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="F139">
@@ -6623,7 +6625,7 @@
       <c r="D140">
         <v>1</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>1.4</v>
       </c>
       <c r="F140">
@@ -6649,7 +6651,7 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <v>1.05</v>
       </c>
       <c r="F141">
@@ -6675,7 +6677,7 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <v>0.6</v>
       </c>
       <c r="F142">
@@ -6701,7 +6703,7 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <v>0.6</v>
       </c>
       <c r="F143">
@@ -6727,7 +6729,7 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="1">
         <v>0.25</v>
       </c>
       <c r="F144">
@@ -6753,7 +6755,7 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="1">
         <v>0.4</v>
       </c>
       <c r="F145">
@@ -6779,7 +6781,7 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <v>0.6</v>
       </c>
       <c r="F146">
@@ -6805,7 +6807,7 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <v>0.6</v>
       </c>
       <c r="F147">
@@ -6831,7 +6833,7 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="1">
         <v>0.25</v>
       </c>
       <c r="F148">
@@ -6857,7 +6859,7 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="1">
         <v>0.4</v>
       </c>
       <c r="F149">
@@ -6883,7 +6885,7 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <v>0.8</v>
       </c>
       <c r="F150">
@@ -6909,7 +6911,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="1">
         <v>0.7</v>
       </c>
       <c r="F151">
@@ -6935,7 +6937,7 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <v>0.5</v>
       </c>
       <c r="F152">
@@ -6961,7 +6963,7 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <v>0.3</v>
       </c>
       <c r="F153">
@@ -6987,7 +6989,7 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <v>0.3</v>
       </c>
       <c r="F154">
@@ -7013,7 +7015,7 @@
       <c r="D155">
         <v>2</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="1">
         <v>0.4</v>
       </c>
       <c r="F155">
@@ -7039,7 +7041,7 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="1">
         <v>0.6</v>
       </c>
       <c r="F156">
@@ -7065,7 +7067,7 @@
       <c r="D157">
         <v>1</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="1">
         <v>0.1</v>
       </c>
       <c r="F157">
@@ -7091,7 +7093,7 @@
       <c r="D158">
         <v>1</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="1">
         <v>0.25</v>
       </c>
       <c r="F158">
@@ -7117,7 +7119,7 @@
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>0.3</v>
       </c>
       <c r="F159">
@@ -7143,7 +7145,7 @@
       <c r="D160">
         <v>1</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <v>0.7</v>
       </c>
       <c r="F160">
@@ -7169,7 +7171,7 @@
       <c r="D161">
         <v>1</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F161">
@@ -7195,7 +7197,7 @@
       <c r="D162">
         <v>1</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>0.75</v>
       </c>
       <c r="F162">
@@ -7221,7 +7223,7 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="1">
         <v>0.7</v>
       </c>
       <c r="F163">
@@ -7247,7 +7249,7 @@
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="1">
         <v>0.65</v>
       </c>
       <c r="F164">
@@ -7273,7 +7275,7 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>0.25</v>
       </c>
       <c r="F165">
@@ -7299,7 +7301,7 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="1">
         <v>0.45</v>
       </c>
       <c r="F166">
@@ -7325,7 +7327,7 @@
       <c r="D167">
         <v>1</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="1">
         <v>0.6</v>
       </c>
       <c r="F167">
@@ -7351,7 +7353,7 @@
       <c r="D168">
         <v>1</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="1">
         <v>0.6</v>
       </c>
       <c r="F168">
@@ -7377,7 +7379,7 @@
       <c r="D169">
         <v>1</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <v>0.8</v>
       </c>
       <c r="F169">
@@ -7403,7 +7405,7 @@
       <c r="D170">
         <v>1</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F170">
@@ -7429,7 +7431,7 @@
       <c r="D171">
         <v>1</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="1">
         <v>0.6</v>
       </c>
       <c r="F171">
@@ -7455,7 +7457,7 @@
       <c r="D172">
         <v>1</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="1">
         <v>0.95</v>
       </c>
       <c r="F172">
@@ -7481,7 +7483,7 @@
       <c r="D173">
         <v>1</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="1">
         <v>0.35</v>
       </c>
       <c r="F173">
@@ -7507,7 +7509,7 @@
       <c r="D174">
         <v>1</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="1">
         <v>0.5</v>
       </c>
       <c r="F174">
@@ -7533,7 +7535,7 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <v>0.4</v>
       </c>
       <c r="F175">
@@ -7559,7 +7561,7 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <v>0.75</v>
       </c>
       <c r="F176">
@@ -7585,7 +7587,7 @@
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="1">
         <v>0.5</v>
       </c>
       <c r="F177">
@@ -7611,7 +7613,7 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="1">
         <v>0.4</v>
       </c>
       <c r="F178">
@@ -7637,7 +7639,7 @@
       <c r="D179">
         <v>2</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="1">
         <v>0.3</v>
       </c>
       <c r="F179">
@@ -7663,7 +7665,7 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="1">
         <v>0.4</v>
       </c>
       <c r="F180">
@@ -7689,7 +7691,7 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <v>0.95</v>
       </c>
       <c r="F181">
@@ -7715,7 +7717,7 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>0.7</v>
       </c>
       <c r="F182">
@@ -7741,7 +7743,7 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <v>0.95</v>
       </c>
       <c r="F183">
@@ -7767,7 +7769,7 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <v>0.85</v>
       </c>
       <c r="F184">
@@ -7793,7 +7795,7 @@
       <c r="D185">
         <v>1</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="1">
         <v>0.6</v>
       </c>
       <c r="F185">
@@ -7819,7 +7821,7 @@
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="1">
         <v>0.4</v>
       </c>
       <c r="F186">
@@ -7845,7 +7847,7 @@
       <c r="D187">
         <v>1</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="1">
         <v>0.35</v>
       </c>
       <c r="F187">
@@ -7871,7 +7873,7 @@
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="1">
         <v>0.45</v>
       </c>
       <c r="F188">
@@ -7897,7 +7899,7 @@
       <c r="D189">
         <v>1</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="1">
         <v>0.5</v>
       </c>
       <c r="F189">
@@ -7923,7 +7925,7 @@
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="1">
         <v>0.5</v>
       </c>
       <c r="F190">
@@ -7949,7 +7951,7 @@
       <c r="D191">
         <v>1</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="1">
         <v>0.8</v>
       </c>
       <c r="F191">
@@ -7975,7 +7977,7 @@
       <c r="D192">
         <v>1</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="F192">
@@ -8001,7 +8003,7 @@
       <c r="D193">
         <v>1</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="1">
         <v>0.4</v>
       </c>
       <c r="F193">
@@ -8027,7 +8029,7 @@
       <c r="D194">
         <v>1</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="1">
         <v>0.7</v>
       </c>
       <c r="F194">
@@ -8053,7 +8055,7 @@
       <c r="D195">
         <v>1</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="1">
         <v>0.8</v>
       </c>
       <c r="F195">
@@ -8079,7 +8081,7 @@
       <c r="D196">
         <v>1</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="1">
         <v>0.6</v>
       </c>
       <c r="F196">
@@ -8105,7 +8107,7 @@
       <c r="D197">
         <v>1</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="1">
         <v>0.45</v>
       </c>
       <c r="F197">
@@ -8131,7 +8133,7 @@
       <c r="D198">
         <v>1</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="1">
         <v>0.5</v>
       </c>
       <c r="F198">
@@ -8157,7 +8159,7 @@
       <c r="D199">
         <v>1</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="1">
         <v>0.3</v>
       </c>
       <c r="F199">
@@ -8183,7 +8185,7 @@
       <c r="D200">
         <v>1</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="1">
         <v>0.4</v>
       </c>
       <c r="F200">
@@ -8209,7 +8211,7 @@
       <c r="D201">
         <v>1</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="1">
         <v>0.3</v>
       </c>
       <c r="F201">
@@ -8235,7 +8237,7 @@
       <c r="D202">
         <v>1</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="1">
         <v>0.9</v>
       </c>
       <c r="F202">
@@ -8261,7 +8263,7 @@
       <c r="D203">
         <v>1</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="1">
         <v>0.5</v>
       </c>
       <c r="F203">
@@ -8287,7 +8289,7 @@
       <c r="D204">
         <v>1</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="1">
         <v>0.8</v>
       </c>
       <c r="F204">
@@ -8313,7 +8315,7 @@
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="1">
         <v>0.8</v>
       </c>
       <c r="F205">
@@ -8339,7 +8341,7 @@
       <c r="D206">
         <v>1</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="1">
         <v>0.7</v>
       </c>
       <c r="F206">
@@ -8365,7 +8367,7 @@
       <c r="D207">
         <v>1</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="1">
         <v>1</v>
       </c>
       <c r="F207">
@@ -8391,7 +8393,7 @@
       <c r="D208">
         <v>1</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="1">
         <v>0.9</v>
       </c>
       <c r="F208">
@@ -8417,7 +8419,7 @@
       <c r="D209">
         <v>1</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="1">
         <v>0.8</v>
       </c>
       <c r="F209">
@@ -8443,7 +8445,7 @@
       <c r="D210">
         <v>1</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="1">
         <v>0.2</v>
       </c>
       <c r="F210">
@@ -8469,7 +8471,7 @@
       <c r="D211">
         <v>1</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F211">
@@ -8495,7 +8497,7 @@
       <c r="D212">
         <v>1</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="1">
         <v>0.5</v>
       </c>
       <c r="F212">
@@ -8521,7 +8523,7 @@
       <c r="D213">
         <v>1</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <v>0.8</v>
       </c>
       <c r="F213">
@@ -8547,7 +8549,7 @@
       <c r="D214">
         <v>1</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="1">
         <v>0.3</v>
       </c>
       <c r="F214">
@@ -8573,7 +8575,7 @@
       <c r="D215">
         <v>1</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="1">
         <v>0.15</v>
       </c>
       <c r="F215">
@@ -8599,7 +8601,7 @@
       <c r="D216">
         <v>1</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <v>0.35</v>
       </c>
       <c r="F216">
@@ -8625,7 +8627,7 @@
       <c r="D217">
         <v>1</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="1">
         <v>0.4</v>
       </c>
       <c r="F217">
@@ -8651,7 +8653,7 @@
       <c r="D218">
         <v>1</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="1">
         <v>0.4</v>
       </c>
       <c r="F218">
@@ -8677,7 +8679,7 @@
       <c r="D219">
         <v>1</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="1">
         <v>0.35</v>
       </c>
       <c r="F219">
@@ -8703,7 +8705,7 @@
       <c r="D220">
         <v>1</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="1">
         <v>0.65</v>
       </c>
       <c r="F220">
@@ -8729,7 +8731,7 @@
       <c r="D221">
         <v>1</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="1">
         <v>0.45</v>
       </c>
       <c r="F221">
@@ -8755,7 +8757,7 @@
       <c r="D222">
         <v>1</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <v>0.4</v>
       </c>
       <c r="F222">
@@ -8781,7 +8783,7 @@
       <c r="D223">
         <v>1</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="1">
         <v>0.6</v>
       </c>
       <c r="F223">
@@ -8807,7 +8809,7 @@
       <c r="D224">
         <v>1</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="1">
         <v>0.65</v>
       </c>
       <c r="F224">
@@ -8833,7 +8835,7 @@
       <c r="D225">
         <v>1</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="1">
         <v>0.6</v>
       </c>
       <c r="F225">
@@ -8859,7 +8861,7 @@
       <c r="D226">
         <v>1</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="1">
         <v>0.5</v>
       </c>
       <c r="F226">
@@ -8885,7 +8887,7 @@
       <c r="D227">
         <v>1</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="1">
         <v>0.45</v>
       </c>
       <c r="F227">
@@ -8911,7 +8913,7 @@
       <c r="D228">
         <v>1</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="1">
         <v>0.65</v>
       </c>
       <c r="F228">
@@ -8937,7 +8939,7 @@
       <c r="D229">
         <v>1</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="1">
         <v>0.45</v>
       </c>
       <c r="F229">
@@ -8963,7 +8965,7 @@
       <c r="D230">
         <v>2</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="1">
         <v>0.75</v>
       </c>
       <c r="F230">
@@ -8989,7 +8991,7 @@
       <c r="D231">
         <v>1</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="1">
         <v>0.3</v>
       </c>
       <c r="F231">
@@ -9015,7 +9017,7 @@
       <c r="D232">
         <v>1</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="1">
         <v>0.5</v>
       </c>
       <c r="F232">
@@ -9041,7 +9043,7 @@
       <c r="D233">
         <v>1</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="1">
         <v>0.25</v>
       </c>
       <c r="F233">
@@ -9067,7 +9069,7 @@
       <c r="D234">
         <v>1</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="1">
         <v>0.5</v>
       </c>
       <c r="F234">
@@ -9093,7 +9095,7 @@
       <c r="D235">
         <v>1</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="1">
         <v>0.4</v>
       </c>
       <c r="F235">
@@ -9119,7 +9121,7 @@
       <c r="D236">
         <v>1</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="1">
         <v>0.25</v>
       </c>
       <c r="F236">
@@ -9145,7 +9147,7 @@
       <c r="D237">
         <v>1</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="1">
         <v>0.3</v>
       </c>
       <c r="F237">
@@ -9171,7 +9173,7 @@
       <c r="D238">
         <v>1</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="1">
         <v>0.3</v>
       </c>
       <c r="F238">
@@ -9197,7 +9199,7 @@
       <c r="D239">
         <v>1</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="1">
         <v>0.8</v>
       </c>
       <c r="F239">
@@ -9223,7 +9225,7 @@
       <c r="D240">
         <v>1</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="1">
         <v>0.7</v>
       </c>
       <c r="F240">
@@ -9249,7 +9251,7 @@
       <c r="D241">
         <v>1</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="1">
         <v>0.7</v>
       </c>
       <c r="F241">
@@ -9275,7 +9277,7 @@
       <c r="D242">
         <v>1</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="1">
         <v>0.4</v>
       </c>
       <c r="F242">
@@ -9301,7 +9303,7 @@
       <c r="D243">
         <v>1</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="1">
         <v>0.3</v>
       </c>
       <c r="F243">
@@ -9327,7 +9329,7 @@
       <c r="D244">
         <v>1</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="1">
         <v>0.6</v>
       </c>
       <c r="F244">
@@ -9353,7 +9355,7 @@
       <c r="D245">
         <v>2</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="1">
         <v>0.6</v>
       </c>
       <c r="F245">
@@ -9379,7 +9381,7 @@
       <c r="D246">
         <v>1</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="1">
         <v>0.3</v>
       </c>
       <c r="F246">
@@ -9405,7 +9407,7 @@
       <c r="D247">
         <v>1</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="1">
         <v>0.8</v>
       </c>
       <c r="F247">
@@ -9431,7 +9433,7 @@
       <c r="D248">
         <v>1</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="1">
         <v>0.7</v>
       </c>
       <c r="F248">
@@ -9457,7 +9459,7 @@
       <c r="D249">
         <v>1</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="1">
         <v>0.6</v>
       </c>
       <c r="F249">
@@ -9483,7 +9485,7 @@
       <c r="D250">
         <v>1</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="1">
         <v>0.25</v>
       </c>
       <c r="F250">
@@ -9509,7 +9511,7 @@
       <c r="D251">
         <v>1</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="1">
         <v>0.4</v>
       </c>
       <c r="F251">
@@ -9535,7 +9537,7 @@
       <c r="D252">
         <v>1</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="1">
         <v>0.75</v>
       </c>
       <c r="F252">
@@ -9561,7 +9563,7 @@
       <c r="D253">
         <v>0</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="1">
         <v>0.5</v>
       </c>
       <c r="F253">
@@ -9587,7 +9589,7 @@
       <c r="D254">
         <v>2</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="1">
         <v>0.7</v>
       </c>
       <c r="F254">
@@ -9613,7 +9615,7 @@
       <c r="D255">
         <v>1</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="1">
         <v>0.3</v>
       </c>
       <c r="F255">
@@ -9639,7 +9641,7 @@
       <c r="D256">
         <v>2</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="1">
         <v>0.8</v>
       </c>
       <c r="F256">
@@ -9665,7 +9667,7 @@
       <c r="D257">
         <v>1</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="1">
         <v>0.4</v>
       </c>
       <c r="F257">
@@ -9691,7 +9693,7 @@
       <c r="D258">
         <v>2</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="1">
         <v>0.8</v>
       </c>
       <c r="F258">
@@ -9717,7 +9719,7 @@
       <c r="D259">
         <v>2</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="1">
         <v>0.5</v>
       </c>
       <c r="F259">
@@ -9743,7 +9745,7 @@
       <c r="D260">
         <v>1</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="1">
         <v>0.5</v>
       </c>
       <c r="F260">
@@ -9769,7 +9771,7 @@
       <c r="D261">
         <v>1</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="1">
         <v>0.5</v>
       </c>
       <c r="F261">
@@ -9795,7 +9797,7 @@
       <c r="D262">
         <v>1</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="1">
         <v>0.45</v>
       </c>
       <c r="F262">
@@ -9821,7 +9823,7 @@
       <c r="D263">
         <v>1</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="1">
         <v>0.65</v>
       </c>
       <c r="F263">
@@ -9847,7 +9849,7 @@
       <c r="D264">
         <v>1</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="1">
         <v>0.5</v>
       </c>
       <c r="F264">
@@ -9873,7 +9875,7 @@
       <c r="D265">
         <v>1</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="1">
         <v>0.6</v>
       </c>
       <c r="F265">
@@ -9899,7 +9901,7 @@
       <c r="D266">
         <v>1</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="1">
         <v>0.7</v>
       </c>
       <c r="F266">
@@ -9925,7 +9927,7 @@
       <c r="D267">
         <v>1</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="1">
         <v>0.7</v>
       </c>
       <c r="F267">
@@ -9951,7 +9953,7 @@
       <c r="D268">
         <v>1</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="1">
         <v>0.75</v>
       </c>
       <c r="F268">
@@ -9977,7 +9979,7 @@
       <c r="D269">
         <v>2</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="1">
         <v>0.75</v>
       </c>
       <c r="F269">
@@ -10003,7 +10005,7 @@
       <c r="D270">
         <v>1</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="1">
         <v>0.5</v>
       </c>
       <c r="F270">
@@ -10029,7 +10031,7 @@
       <c r="D271">
         <v>2</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="1">
         <v>0.6</v>
       </c>
       <c r="F271">
@@ -10055,7 +10057,7 @@
       <c r="D272">
         <v>2</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="1">
         <v>0.5</v>
       </c>
       <c r="F272">
@@ -10081,7 +10083,7 @@
       <c r="D273">
         <v>1</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="1">
         <v>0.7</v>
       </c>
       <c r="F273">
@@ -10107,7 +10109,7 @@
       <c r="D274">
         <v>1</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="1">
         <v>0.6</v>
       </c>
       <c r="F274">
@@ -10133,7 +10135,7 @@
       <c r="D275">
         <v>1</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="1">
         <v>0.5</v>
       </c>
       <c r="F275">
@@ -10159,7 +10161,7 @@
       <c r="D276">
         <v>1</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="1">
         <v>0.35</v>
       </c>
       <c r="F276">
@@ -10185,7 +10187,7 @@
       <c r="D277">
         <v>1</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="1">
         <v>0.25</v>
       </c>
       <c r="F277">
@@ -10211,7 +10213,7 @@
       <c r="D278">
         <v>1</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="1">
         <v>0.3</v>
       </c>
       <c r="F278">
@@ -10237,7 +10239,7 @@
       <c r="D279">
         <v>1</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="1">
         <v>0.5</v>
       </c>
       <c r="F279">
@@ -10263,7 +10265,7 @@
       <c r="D280">
         <v>2</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="1">
         <v>0.5</v>
       </c>
       <c r="F280">
@@ -10289,7 +10291,7 @@
       <c r="D281">
         <v>2</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="1">
         <v>0.5</v>
       </c>
       <c r="F281">
@@ -10315,7 +10317,7 @@
       <c r="D282">
         <v>1</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="1">
         <v>0.25</v>
       </c>
       <c r="F282">
@@ -10341,7 +10343,7 @@
       <c r="D283">
         <v>1</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F283">
@@ -10367,7 +10369,7 @@
       <c r="D284">
         <v>1</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="1">
         <v>0.6</v>
       </c>
       <c r="F284">
@@ -10393,7 +10395,7 @@
       <c r="D285">
         <v>1</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="1">
         <v>0.5</v>
       </c>
       <c r="F285">
@@ -10419,7 +10421,7 @@
       <c r="D286">
         <v>1</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="1">
         <v>0.7</v>
       </c>
       <c r="F286">
@@ -10445,7 +10447,7 @@
       <c r="D287">
         <v>1</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F287">
@@ -10471,7 +10473,7 @@
       <c r="D288">
         <v>1</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="1">
         <v>0.4</v>
       </c>
       <c r="F288">
@@ -10497,7 +10499,7 @@
       <c r="D289">
         <v>1</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="1">
         <v>0.3</v>
       </c>
       <c r="F289">
@@ -10523,7 +10525,7 @@
       <c r="D290">
         <v>2</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F290">
@@ -10549,7 +10551,7 @@
       <c r="D291">
         <v>1</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="1">
         <v>0.6</v>
       </c>
       <c r="F291">
@@ -10575,7 +10577,7 @@
       <c r="D292">
         <v>1</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="1">
         <v>0.3</v>
       </c>
       <c r="F292">
@@ -10601,7 +10603,7 @@
       <c r="D293">
         <v>1</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="1">
         <v>0.35</v>
       </c>
       <c r="F293">
@@ -10627,7 +10629,7 @@
       <c r="D294">
         <v>1</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="1">
         <v>0.45</v>
       </c>
       <c r="F294">
@@ -10653,7 +10655,7 @@
       <c r="D295">
         <v>1</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F295">
@@ -10679,7 +10681,7 @@
       <c r="D296">
         <v>1</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="1">
         <v>0.65</v>
       </c>
       <c r="F296">
@@ -10705,7 +10707,7 @@
       <c r="D297">
         <v>1</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="1">
         <v>0.65</v>
       </c>
       <c r="F297">
@@ -10731,7 +10733,7 @@
       <c r="D298">
         <v>1</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F298">
@@ -10757,7 +10759,7 @@
       <c r="D299">
         <v>1</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="1">
         <v>0.5</v>
       </c>
       <c r="F299">
@@ -10783,7 +10785,7 @@
       <c r="D300">
         <v>1</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="1">
         <v>0.95</v>
       </c>
       <c r="F300">
@@ -10809,7 +10811,7 @@
       <c r="D301">
         <v>1</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="1">
         <v>0.7</v>
       </c>
       <c r="F301">
@@ -10835,7 +10837,7 @@
       <c r="D302">
         <v>2</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="1">
         <v>0.75</v>
       </c>
       <c r="F302">
@@ -10861,7 +10863,7 @@
       <c r="D303">
         <v>2</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="1">
         <v>0.7</v>
       </c>
       <c r="F303">
@@ -10887,7 +10889,7 @@
       <c r="D304">
         <v>1</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="1">
         <v>0.5</v>
       </c>
       <c r="F304">
@@ -10913,7 +10915,7 @@
       <c r="D305">
         <v>1</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="1">
         <v>0.6</v>
       </c>
       <c r="F305">
@@ -10939,7 +10941,7 @@
       <c r="D306">
         <v>1</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="1">
         <v>0.65</v>
       </c>
       <c r="F306">
@@ -10965,7 +10967,7 @@
       <c r="D307">
         <v>1</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="1">
         <v>0.7</v>
       </c>
       <c r="F307">
@@ -10991,7 +10993,7 @@
       <c r="D308">
         <v>1</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="1">
         <v>0.7</v>
       </c>
       <c r="F308">
@@ -11017,7 +11019,7 @@
       <c r="D309">
         <v>1</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="1">
         <v>0.5</v>
       </c>
       <c r="F309">
@@ -11043,7 +11045,7 @@
       <c r="D310">
         <v>1</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="1">
         <v>0.65</v>
       </c>
       <c r="F310">
@@ -11069,7 +11071,7 @@
       <c r="D311">
         <v>1</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="1">
         <v>0.3</v>
       </c>
       <c r="F311">
@@ -11095,7 +11097,7 @@
       <c r="D312">
         <v>1</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="1">
         <v>0.5</v>
       </c>
       <c r="F312">
@@ -11121,7 +11123,7 @@
       <c r="D313">
         <v>1</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="1">
         <v>0.7</v>
       </c>
       <c r="F313">
@@ -11147,7 +11149,7 @@
       <c r="D314">
         <v>1</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="1">
         <v>0.5</v>
       </c>
       <c r="F314">
@@ -11173,7 +11175,7 @@
       <c r="D315">
         <v>1</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F315">
@@ -11199,7 +11201,7 @@
       <c r="D316">
         <v>2</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="1">
         <v>0.9</v>
       </c>
       <c r="F316">
@@ -11225,7 +11227,7 @@
       <c r="D317">
         <v>1</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="1">
         <v>0.8</v>
       </c>
       <c r="F317">
@@ -11251,7 +11253,7 @@
       <c r="D318">
         <v>1</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="1">
         <v>0.75</v>
       </c>
       <c r="F318">
@@ -11277,7 +11279,7 @@
       <c r="D319">
         <v>1</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="1">
         <v>0.8</v>
       </c>
       <c r="F319">
@@ -11303,7 +11305,7 @@
       <c r="D320">
         <v>1</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="1">
         <v>0.8</v>
       </c>
       <c r="F320">
@@ -11329,7 +11331,7 @@
       <c r="D321">
         <v>1</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="1">
         <v>0.7</v>
       </c>
       <c r="F321">
@@ -11355,7 +11357,7 @@
       <c r="D322">
         <v>1</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="1">
         <v>0.75</v>
       </c>
       <c r="F322">
@@ -11381,7 +11383,7 @@
       <c r="D323">
         <v>1</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="1">
         <v>0.8</v>
       </c>
       <c r="F323">
@@ -11407,7 +11409,7 @@
       <c r="D324">
         <v>1</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="1">
         <v>0.6</v>
       </c>
       <c r="F324">
@@ -11433,7 +11435,7 @@
       <c r="D325">
         <v>1</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="1">
         <v>0.6</v>
       </c>
       <c r="F325">
@@ -11459,7 +11461,7 @@
       <c r="D326">
         <v>1</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="1">
         <v>0.7</v>
       </c>
       <c r="F326">
@@ -11485,7 +11487,7 @@
       <c r="D327">
         <v>1</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="1">
         <v>0.65</v>
       </c>
       <c r="F327">
@@ -11511,7 +11513,7 @@
       <c r="D328">
         <v>3</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="1">
         <v>0.65</v>
       </c>
       <c r="F328">
@@ -11537,7 +11539,7 @@
       <c r="D329">
         <v>3</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="1">
         <v>0.6</v>
       </c>
       <c r="F329">
@@ -11563,7 +11565,7 @@
       <c r="D330">
         <v>2</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="1">
         <v>0.7</v>
       </c>
       <c r="F330">
@@ -11589,7 +11591,7 @@
       <c r="D331">
         <v>1</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="1">
         <v>1.2</v>
       </c>
       <c r="F331">
@@ -11615,7 +11617,7 @@
       <c r="D332">
         <v>1</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="1">
         <v>1</v>
       </c>
       <c r="F332">
@@ -11641,7 +11643,7 @@
       <c r="D333">
         <v>2</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="1">
         <v>0.6</v>
       </c>
       <c r="F333">
@@ -11667,7 +11669,7 @@
       <c r="D334">
         <v>2</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="1">
         <v>0.7</v>
       </c>
       <c r="F334">
@@ -11693,7 +11695,7 @@
       <c r="D335">
         <v>1</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="1">
         <v>0.7</v>
       </c>
       <c r="F335">
@@ -11719,7 +11721,7 @@
       <c r="D336">
         <v>3</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="F336">
@@ -11745,7 +11747,7 @@
       <c r="D337">
         <v>1</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="1">
         <v>0.5</v>
       </c>
       <c r="F337">
@@ -11771,7 +11773,7 @@
       <c r="D338">
         <v>1</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="1">
         <v>0.75</v>
       </c>
       <c r="F338">
@@ -11797,7 +11799,7 @@
       <c r="D339">
         <v>1</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="1">
         <v>0.7</v>
       </c>
       <c r="F339">
@@ -11823,7 +11825,7 @@
       <c r="D340">
         <v>1</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="1">
         <v>0.3</v>
       </c>
       <c r="F340">
@@ -11849,7 +11851,7 @@
       <c r="D341">
         <v>1</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="1">
         <v>0.5</v>
       </c>
       <c r="F341">
@@ -11875,7 +11877,7 @@
       <c r="D342">
         <v>1</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="1">
         <v>0.8</v>
       </c>
       <c r="F342">
@@ -11901,7 +11903,7 @@
       <c r="D343">
         <v>1</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="1">
         <v>0.4</v>
       </c>
       <c r="F343">
@@ -11927,7 +11929,7 @@
       <c r="D344">
         <v>1</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="1">
         <v>0.45</v>
       </c>
       <c r="F344">
@@ -11953,7 +11955,7 @@
       <c r="D345">
         <v>1</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="1">
         <v>0.8</v>
       </c>
       <c r="F345">
@@ -11979,7 +11981,7 @@
       <c r="D346">
         <v>1</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="1">
         <v>0.4</v>
       </c>
       <c r="F346">
@@ -12005,7 +12007,7 @@
       <c r="D347">
         <v>1</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="1">
         <v>0.35</v>
       </c>
       <c r="F347">
@@ -12031,7 +12033,7 @@
       <c r="D348">
         <v>1</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="1">
         <v>0.8</v>
       </c>
       <c r="F348">
@@ -12057,7 +12059,7 @@
       <c r="D349">
         <v>2</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="1">
         <v>0.8</v>
       </c>
       <c r="F349">
@@ -12083,7 +12085,7 @@
       <c r="D350">
         <v>1</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="1">
         <v>0.3</v>
       </c>
       <c r="F350">
@@ -12109,7 +12111,7 @@
       <c r="D351">
         <v>1</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="1">
         <v>0.45</v>
       </c>
       <c r="F351">
@@ -12135,7 +12137,7 @@
       <c r="D352">
         <v>1</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="1">
         <v>0.45</v>
       </c>
       <c r="F352">
@@ -12161,7 +12163,7 @@
       <c r="D353">
         <v>1</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="1">
         <v>0.35</v>
       </c>
       <c r="F353">
@@ -12187,7 +12189,7 @@
       <c r="D354">
         <v>1</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="1">
         <v>0.35</v>
       </c>
       <c r="F354">
@@ -12213,7 +12215,7 @@
       <c r="D355">
         <v>1</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="1">
         <v>0.9</v>
       </c>
       <c r="F355">
@@ -12239,7 +12241,7 @@
       <c r="D356">
         <v>1</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="1">
         <v>0.4</v>
       </c>
       <c r="F356">
@@ -12265,7 +12267,7 @@
       <c r="D357">
         <v>1</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="1">
         <v>0.8</v>
       </c>
       <c r="F357">
@@ -12291,7 +12293,7 @@
       <c r="D358">
         <v>1</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="F358">
@@ -12317,7 +12319,7 @@
       <c r="D359">
         <v>1</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="1">
         <v>0.8</v>
       </c>
       <c r="F359">
@@ -12343,7 +12345,7 @@
       <c r="D360">
         <v>1</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="1">
         <v>0.4</v>
       </c>
       <c r="F360">
@@ -12369,7 +12371,7 @@
       <c r="D361">
         <v>1</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="1">
         <v>1</v>
       </c>
       <c r="F361">
@@ -12395,7 +12397,7 @@
       <c r="D362">
         <v>1</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="1">
         <v>0.9</v>
       </c>
       <c r="F362">
@@ -12421,7 +12423,7 @@
       <c r="D363">
         <v>1</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="1">
         <v>0.7</v>
       </c>
       <c r="F363">
@@ -12447,7 +12449,7 @@
       <c r="D364">
         <v>2</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="1">
         <v>0.8</v>
       </c>
       <c r="F364">
@@ -12473,7 +12475,7 @@
       <c r="D365">
         <v>1</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="1">
         <v>0.6</v>
       </c>
       <c r="F365">
@@ -12499,7 +12501,7 @@
       <c r="D366">
         <v>1</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="1">
         <v>0.8</v>
       </c>
       <c r="F366">
@@ -12525,7 +12527,7 @@
       <c r="D367">
         <v>1</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="1">
         <v>1</v>
       </c>
       <c r="F367">
@@ -12551,7 +12553,7 @@
       <c r="D368">
         <v>1</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="1">
         <v>1</v>
       </c>
       <c r="F368">
@@ -12577,7 +12579,7 @@
       <c r="D369">
         <v>2</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="1">
         <v>0.95</v>
       </c>
       <c r="F369">
@@ -12603,7 +12605,7 @@
       <c r="D370">
         <v>1</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="1">
         <v>1.2</v>
       </c>
       <c r="F370">
@@ -12629,7 +12631,7 @@
       <c r="D371">
         <v>1</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="1">
         <v>0.5</v>
       </c>
       <c r="F371">
@@ -12655,7 +12657,7 @@
       <c r="D372">
         <v>2</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="1">
         <v>0.5</v>
       </c>
       <c r="F372">
@@ -12681,7 +12683,7 @@
       <c r="D373">
         <v>1</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="1">
         <v>0.65</v>
       </c>
       <c r="F373">
@@ -12707,7 +12709,7 @@
       <c r="D374">
         <v>2</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="1">
         <v>0.45</v>
       </c>
       <c r="F374">
@@ -12733,7 +12735,7 @@
       <c r="D375">
         <v>1</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="1">
         <v>0.8</v>
       </c>
       <c r="F375">
@@ -12759,7 +12761,7 @@
       <c r="D376">
         <v>1</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="1">
         <v>0.6</v>
       </c>
       <c r="F376">
@@ -12785,7 +12787,7 @@
       <c r="D377">
         <v>1</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="1">
         <v>1.3</v>
       </c>
       <c r="F377">
@@ -12811,7 +12813,7 @@
       <c r="D378">
         <v>1</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="1">
         <v>0.1</v>
       </c>
       <c r="F378">
@@ -12837,7 +12839,7 @@
       <c r="D379">
         <v>1</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="1">
         <v>0.2</v>
       </c>
       <c r="F379">
@@ -12863,7 +12865,7 @@
       <c r="D380">
         <v>2</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="1">
         <v>1</v>
       </c>
       <c r="F380">
@@ -12889,7 +12891,7 @@
       <c r="D381">
         <v>1</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="1">
         <v>0.5</v>
       </c>
       <c r="F381">
@@ -12915,7 +12917,7 @@
       <c r="D382">
         <v>1</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="1">
         <v>0.5</v>
       </c>
       <c r="F382">
@@ -12941,7 +12943,7 @@
       <c r="D383">
         <v>1</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="1">
         <v>0.4</v>
       </c>
       <c r="F383">
@@ -12967,7 +12969,7 @@
       <c r="D384">
         <v>1</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="1">
         <v>0.4</v>
       </c>
       <c r="F384">
@@ -12993,7 +12995,7 @@
       <c r="D385">
         <v>1</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F385">
@@ -13019,7 +13021,7 @@
       <c r="D386">
         <v>1</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="1">
         <v>0.4</v>
       </c>
       <c r="F386">
@@ -13045,7 +13047,7 @@
       <c r="D387">
         <v>3</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="1">
         <v>0.7</v>
       </c>
       <c r="F387">
@@ -13071,7 +13073,7 @@
       <c r="D388">
         <v>1</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="1">
         <v>0.3</v>
       </c>
       <c r="F388">
@@ -13097,7 +13099,7 @@
       <c r="D389">
         <v>1</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="1">
         <v>0.4</v>
       </c>
       <c r="F389">
@@ -13123,7 +13125,7 @@
       <c r="D390">
         <v>1</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="1">
         <v>0.4</v>
       </c>
       <c r="F390">
@@ -13149,7 +13151,7 @@
       <c r="D391">
         <v>3</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="1">
         <v>0.4</v>
       </c>
       <c r="F391">
@@ -13175,7 +13177,7 @@
       <c r="D392">
         <v>1</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F392">
@@ -13201,7 +13203,7 @@
       <c r="D393">
         <v>1</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="1">
         <v>0.5</v>
       </c>
       <c r="F393">
@@ -13227,7 +13229,7 @@
       <c r="D394">
         <v>1</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="1">
         <v>0.65</v>
       </c>
       <c r="F394">
@@ -13253,7 +13255,7 @@
       <c r="D395">
         <v>1</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="1">
         <v>0.25</v>
       </c>
       <c r="F395">
@@ -13279,7 +13281,7 @@
       <c r="D396">
         <v>1</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="1">
         <v>0.4</v>
       </c>
       <c r="F396">
@@ -13305,7 +13307,7 @@
       <c r="D397">
         <v>2</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="1">
         <v>0.4</v>
       </c>
       <c r="F397">
@@ -13331,7 +13333,7 @@
       <c r="D398">
         <v>1</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="1">
         <v>0.45</v>
       </c>
       <c r="F398">
@@ -13357,7 +13359,7 @@
       <c r="D399">
         <v>1</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="1">
         <v>0.4</v>
       </c>
       <c r="F399">
@@ -13383,7 +13385,7 @@
       <c r="D400">
         <v>1</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="1">
         <v>0.8</v>
       </c>
       <c r="F400">
@@ -13409,7 +13411,7 @@
       <c r="D401">
         <v>1</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="1">
         <v>0.45</v>
       </c>
       <c r="F401">
@@ -13435,7 +13437,7 @@
       <c r="D402">
         <v>1</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="1">
         <v>0.4</v>
       </c>
       <c r="F402">
@@ -13461,7 +13463,7 @@
       <c r="D403">
         <v>2</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="1">
         <v>0.4</v>
       </c>
       <c r="F403">
@@ -13487,7 +13489,7 @@
       <c r="D404">
         <v>1</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="1">
         <v>0.35</v>
       </c>
       <c r="F404">
@@ -13513,7 +13515,7 @@
       <c r="D405">
         <v>1</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="1">
         <v>0.45</v>
       </c>
       <c r="F405">
@@ -13539,7 +13541,7 @@
       <c r="D406">
         <v>1</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="1">
         <v>0.5</v>
       </c>
       <c r="F406">
@@ -13565,7 +13567,7 @@
       <c r="D407">
         <v>1</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="1">
         <v>0.5</v>
       </c>
       <c r="F407">
@@ -13591,7 +13593,7 @@
       <c r="D408">
         <v>1</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="1">
         <v>0.8</v>
       </c>
       <c r="F408">
@@ -13617,7 +13619,7 @@
       <c r="D409">
         <v>3</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="1">
         <v>0.6</v>
       </c>
       <c r="F409">
@@ -13643,7 +13645,7 @@
       <c r="D410">
         <v>2</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="1">
         <v>0.4</v>
       </c>
       <c r="F410">
@@ -13669,7 +13671,7 @@
       <c r="D411">
         <v>2</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="1">
         <v>0.4</v>
       </c>
       <c r="F411">
@@ -13695,7 +13697,7 @@
       <c r="D412">
         <v>1</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="1">
         <v>0.7</v>
       </c>
       <c r="F412">
@@ -13721,7 +13723,7 @@
       <c r="D413">
         <v>2</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F413">
@@ -13747,7 +13749,7 @@
       <c r="D414">
         <v>1</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="1">
         <v>0.4</v>
       </c>
       <c r="F414">
@@ -13773,7 +13775,7 @@
       <c r="D415">
         <v>1</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="1">
         <v>0.4</v>
       </c>
       <c r="F415">
@@ -13799,7 +13801,7 @@
       <c r="D416">
         <v>1</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="1">
         <v>0.4</v>
       </c>
       <c r="F416">
@@ -13825,7 +13827,7 @@
       <c r="D417">
         <v>1</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="1">
         <v>0.4</v>
       </c>
       <c r="F417">
@@ -13851,7 +13853,7 @@
       <c r="D418">
         <v>1</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="1">
         <v>0.5</v>
       </c>
       <c r="F418">
@@ -13877,7 +13879,7 @@
       <c r="D419">
         <v>1</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F419">
@@ -13903,7 +13905,7 @@
       <c r="D420">
         <v>1</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F420">
@@ -13929,7 +13931,7 @@
       <c r="D421">
         <v>1</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="1">
         <v>0.4</v>
       </c>
       <c r="F421">
@@ -13955,7 +13957,7 @@
       <c r="D422">
         <v>1</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="1">
         <v>0.3</v>
       </c>
       <c r="F422">
@@ -13981,7 +13983,7 @@
       <c r="D423">
         <v>1</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="1">
         <v>0.4</v>
       </c>
       <c r="F423">
@@ -14007,7 +14009,7 @@
       <c r="D424">
         <v>1</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="1">
         <v>0.4</v>
       </c>
       <c r="F424">
@@ -14033,7 +14035,7 @@
       <c r="D425">
         <v>1</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="1">
         <v>0.6</v>
       </c>
       <c r="F425">
@@ -14059,7 +14061,7 @@
       <c r="D426">
         <v>1</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="1">
         <v>0.6</v>
       </c>
       <c r="F426">
@@ -14085,7 +14087,7 @@
       <c r="D427">
         <v>2</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="1">
         <v>0.3</v>
       </c>
       <c r="F427">
@@ -14111,7 +14113,7 @@
       <c r="D428">
         <v>2</v>
       </c>
-      <c r="E428">
+      <c r="E428" s="1">
         <v>0.3</v>
       </c>
       <c r="F428">
@@ -14137,7 +14139,7 @@
       <c r="D429">
         <v>1</v>
       </c>
-      <c r="E429">
+      <c r="E429" s="1">
         <v>0.5</v>
       </c>
       <c r="F429">
@@ -14163,7 +14165,7 @@
       <c r="D430">
         <v>1</v>
       </c>
-      <c r="E430">
+      <c r="E430" s="1">
         <v>0.4</v>
       </c>
       <c r="F430">
@@ -14189,7 +14191,7 @@
       <c r="D431">
         <v>1</v>
       </c>
-      <c r="E431">
+      <c r="E431" s="1">
         <v>0.4</v>
       </c>
       <c r="F431">
@@ -14215,7 +14217,7 @@
       <c r="D432">
         <v>1</v>
       </c>
-      <c r="E432">
+      <c r="E432" s="1">
         <v>0.6</v>
       </c>
       <c r="F432">
@@ -14241,7 +14243,7 @@
       <c r="D433">
         <v>1</v>
       </c>
-      <c r="E433">
+      <c r="E433" s="1">
         <v>0.6</v>
       </c>
       <c r="F433">
@@ -14267,7 +14269,7 @@
       <c r="D434">
         <v>1</v>
       </c>
-      <c r="E434">
+      <c r="E434" s="1">
         <v>0.6</v>
       </c>
       <c r="F434">
@@ -14293,7 +14295,7 @@
       <c r="D435">
         <v>1</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="1">
         <v>0.4</v>
       </c>
       <c r="F435">
@@ -14319,7 +14321,7 @@
       <c r="D436">
         <v>1</v>
       </c>
-      <c r="E436">
+      <c r="E436" s="1">
         <v>0.4</v>
       </c>
       <c r="F436">
@@ -14345,7 +14347,7 @@
       <c r="D437">
         <v>1</v>
       </c>
-      <c r="E437">
+      <c r="E437" s="1">
         <v>0.35</v>
       </c>
       <c r="F437">
@@ -14371,7 +14373,7 @@
       <c r="D438">
         <v>1</v>
       </c>
-      <c r="E438">
+      <c r="E438" s="1">
         <v>0.3</v>
       </c>
       <c r="F438">
@@ -14397,7 +14399,7 @@
       <c r="D439">
         <v>1</v>
       </c>
-      <c r="E439">
+      <c r="E439" s="1">
         <v>0.4</v>
       </c>
       <c r="F439">
@@ -14423,7 +14425,7 @@
       <c r="D440">
         <v>1</v>
       </c>
-      <c r="E440">
+      <c r="E440" s="1">
         <v>0.4</v>
       </c>
       <c r="F440">
@@ -14449,7 +14451,7 @@
       <c r="D441">
         <v>1</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="1">
         <v>0.4</v>
       </c>
       <c r="F441">
@@ -14475,7 +14477,7 @@
       <c r="D442">
         <v>1</v>
       </c>
-      <c r="E442">
+      <c r="E442" s="1">
         <v>0.4</v>
       </c>
       <c r="F442">
@@ -14501,7 +14503,7 @@
       <c r="D443">
         <v>1</v>
       </c>
-      <c r="E443">
+      <c r="E443" s="1">
         <v>0.4</v>
       </c>
       <c r="F443">
@@ -14527,7 +14529,7 @@
       <c r="D444">
         <v>1</v>
       </c>
-      <c r="E444">
+      <c r="E444" s="1">
         <v>0.75</v>
       </c>
       <c r="F444">
@@ -14553,7 +14555,7 @@
       <c r="D445">
         <v>1</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="1">
         <v>0.3</v>
       </c>
       <c r="F445">
@@ -14579,7 +14581,7 @@
       <c r="D446">
         <v>1</v>
       </c>
-      <c r="E446">
+      <c r="E446" s="1">
         <v>0.5</v>
       </c>
       <c r="F446">
@@ -14605,7 +14607,7 @@
       <c r="D447">
         <v>1</v>
       </c>
-      <c r="E447">
+      <c r="E447" s="1">
         <v>0.7</v>
       </c>
       <c r="F447">
@@ -14631,7 +14633,7 @@
       <c r="D448">
         <v>1</v>
       </c>
-      <c r="E448">
+      <c r="E448" s="1">
         <v>0.45</v>
       </c>
       <c r="F448">
@@ -14657,7 +14659,7 @@
       <c r="D449">
         <v>1</v>
       </c>
-      <c r="E449">
+      <c r="E449" s="1">
         <v>0.25</v>
       </c>
       <c r="F449">
@@ -14683,7 +14685,7 @@
       <c r="D450">
         <v>1</v>
       </c>
-      <c r="E450">
+      <c r="E450" s="1">
         <v>0.3</v>
       </c>
       <c r="F450">
@@ -14709,7 +14711,7 @@
       <c r="D451">
         <v>1</v>
       </c>
-      <c r="E451">
+      <c r="E451" s="1">
         <v>0.4</v>
       </c>
       <c r="F451">
@@ -14735,7 +14737,7 @@
       <c r="D452">
         <v>1</v>
       </c>
-      <c r="E452">
+      <c r="E452" s="1">
         <v>0.25</v>
       </c>
       <c r="F452">
@@ -14761,7 +14763,7 @@
       <c r="D453">
         <v>1</v>
       </c>
-      <c r="E453">
+      <c r="E453" s="1">
         <v>0.3</v>
       </c>
       <c r="F453">
@@ -14787,7 +14789,7 @@
       <c r="D454">
         <v>1</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="1">
         <v>0.35</v>
       </c>
       <c r="F454">
@@ -14813,7 +14815,7 @@
       <c r="D455">
         <v>1</v>
       </c>
-      <c r="E455">
+      <c r="E455" s="1">
         <v>0.35</v>
       </c>
       <c r="F455">
@@ -14839,7 +14841,7 @@
       <c r="D456">
         <v>1</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="1">
         <v>0.65</v>
       </c>
       <c r="F456">
@@ -14865,7 +14867,7 @@
       <c r="D457">
         <v>1</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="1">
         <v>0.65</v>
       </c>
       <c r="F457">
@@ -14891,7 +14893,7 @@
       <c r="D458">
         <v>1</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="1">
         <v>0.65</v>
       </c>
       <c r="F458">
@@ -14917,7 +14919,7 @@
       <c r="D459">
         <v>1</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="1">
         <v>0.75</v>
       </c>
       <c r="F459">
@@ -14943,7 +14945,7 @@
       <c r="D460">
         <v>2</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="1">
         <v>0.75</v>
       </c>
       <c r="F460">
@@ -14969,7 +14971,7 @@
       <c r="D461">
         <v>1</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="1">
         <v>0.7</v>
       </c>
       <c r="F461">
@@ -14995,7 +14997,7 @@
       <c r="D462">
         <v>1</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="1">
         <v>0.5</v>
       </c>
       <c r="F462">
@@ -15021,7 +15023,7 @@
       <c r="D463">
         <v>2</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="1">
         <v>0.6</v>
       </c>
       <c r="F463">
@@ -15047,7 +15049,7 @@
       <c r="D464">
         <v>1</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="1">
         <v>0.7</v>
       </c>
       <c r="F464">
@@ -15073,7 +15075,7 @@
       <c r="D465">
         <v>1</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="1">
         <v>0.8</v>
       </c>
       <c r="F465">
@@ -15099,7 +15101,7 @@
       <c r="D466">
         <v>1</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="1">
         <v>0.8</v>
       </c>
       <c r="F466">
@@ -15125,7 +15127,7 @@
       <c r="D467">
         <v>1</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="1">
         <v>0.8</v>
       </c>
       <c r="F467">
@@ -15151,7 +15153,7 @@
       <c r="D468">
         <v>1</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="1">
         <v>0.85</v>
       </c>
       <c r="F468">
@@ -15177,7 +15179,7 @@
       <c r="D469">
         <v>1</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="1">
         <v>0.75</v>
       </c>
       <c r="F469">
@@ -15203,7 +15205,7 @@
       <c r="D470">
         <v>1</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F470">
@@ -15229,7 +15231,7 @@
       <c r="D471">
         <v>1</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="1">
         <v>0.7</v>
       </c>
       <c r="F471">
@@ -15255,7 +15257,7 @@
       <c r="D472">
         <v>1</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="1">
         <v>0.5</v>
       </c>
       <c r="F472">
@@ -15281,7 +15283,7 @@
       <c r="D473">
         <v>1</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="1">
         <v>0.45</v>
       </c>
       <c r="F473">
@@ -15307,7 +15309,7 @@
       <c r="D474">
         <v>1</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="1">
         <v>0.5</v>
       </c>
       <c r="F474">
@@ -15333,7 +15335,7 @@
       <c r="D475">
         <v>1</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="1">
         <v>0.6</v>
       </c>
       <c r="F475">
@@ -15359,7 +15361,7 @@
       <c r="D476">
         <v>1</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="1">
         <v>0.45</v>
       </c>
       <c r="F476">
@@ -15385,7 +15387,7 @@
       <c r="D477">
         <v>1</v>
       </c>
-      <c r="E477">
+      <c r="E477" s="1">
         <v>0.65</v>
       </c>
       <c r="F477">
@@ -15411,7 +15413,7 @@
       <c r="D478">
         <v>1</v>
       </c>
-      <c r="E478">
+      <c r="E478" s="1">
         <v>0.65</v>
       </c>
       <c r="F478">
@@ -15437,7 +15439,7 @@
       <c r="D479">
         <v>1</v>
       </c>
-      <c r="E479">
+      <c r="E479" s="1">
         <v>0.65</v>
       </c>
       <c r="F479">
@@ -15463,7 +15465,7 @@
       <c r="D480">
         <v>1</v>
       </c>
-      <c r="E480">
+      <c r="E480" s="1">
         <v>0.65</v>
       </c>
       <c r="F480">
@@ -15489,7 +15491,7 @@
       <c r="D481">
         <v>1</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="1">
         <v>0.65</v>
       </c>
       <c r="F481">
@@ -15515,7 +15517,7 @@
       <c r="D482">
         <v>1</v>
       </c>
-      <c r="E482">
+      <c r="E482" s="1">
         <v>0.85</v>
       </c>
       <c r="F482">
@@ -15541,7 +15543,7 @@
       <c r="D483">
         <v>3</v>
       </c>
-      <c r="E483">
+      <c r="E483" s="1">
         <v>0.6</v>
       </c>
       <c r="F483">
@@ -15567,7 +15569,7 @@
       <c r="D484">
         <v>2</v>
       </c>
-      <c r="E484">
+      <c r="E484" s="1">
         <v>0.7</v>
       </c>
       <c r="F484">
@@ -15593,7 +15595,7 @@
       <c r="D485">
         <v>2</v>
       </c>
-      <c r="E485">
+      <c r="E485" s="1">
         <v>0.7</v>
       </c>
       <c r="F485">
@@ -15619,7 +15621,7 @@
       <c r="D486">
         <v>2</v>
       </c>
-      <c r="E486">
+      <c r="E486" s="1">
         <v>0.7</v>
       </c>
       <c r="F486">
@@ -15645,7 +15647,7 @@
       <c r="D487">
         <v>1</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="1">
         <v>1.2</v>
       </c>
       <c r="F487">
@@ -15671,7 +15673,7 @@
       <c r="D488">
         <v>1</v>
       </c>
-      <c r="E488">
+      <c r="E488" s="1">
         <v>1.2</v>
       </c>
       <c r="F488">
@@ -15697,7 +15699,7 @@
       <c r="D489">
         <v>1</v>
       </c>
-      <c r="E489">
+      <c r="E489" s="1">
         <v>1.2</v>
       </c>
       <c r="F489">
@@ -15723,7 +15725,7 @@
       <c r="D490">
         <v>1</v>
       </c>
-      <c r="E490">
+      <c r="E490" s="1">
         <v>1.2</v>
       </c>
       <c r="F490">
@@ -15749,7 +15751,7 @@
       <c r="D491">
         <v>1</v>
       </c>
-      <c r="E491">
+      <c r="E491" s="1">
         <v>1.2</v>
       </c>
       <c r="F491">
@@ -15775,7 +15777,7 @@
       <c r="D492">
         <v>1</v>
       </c>
-      <c r="E492">
+      <c r="E492" s="1">
         <v>1.2</v>
       </c>
       <c r="F492">
@@ -15801,7 +15803,7 @@
       <c r="D493">
         <v>1</v>
       </c>
-      <c r="E493">
+      <c r="E493" s="1">
         <v>0.5</v>
       </c>
       <c r="F493">
@@ -15827,7 +15829,7 @@
       <c r="D494">
         <v>1</v>
       </c>
-      <c r="E494">
+      <c r="E494" s="1">
         <v>0.7</v>
       </c>
       <c r="F494">
@@ -15853,7 +15855,7 @@
       <c r="D495">
         <v>1</v>
       </c>
-      <c r="E495">
+      <c r="E495" s="1">
         <v>0.7</v>
       </c>
       <c r="F495">
@@ -15879,7 +15881,7 @@
       <c r="D496">
         <v>1</v>
       </c>
-      <c r="E496">
+      <c r="E496" s="1">
         <v>0.7</v>
       </c>
       <c r="F496">
@@ -15905,7 +15907,7 @@
       <c r="D497">
         <v>1</v>
       </c>
-      <c r="E497">
+      <c r="E497" s="1">
         <v>0.75</v>
       </c>
       <c r="F497">
@@ -15931,7 +15933,7 @@
       <c r="D498">
         <v>1</v>
       </c>
-      <c r="E498">
+      <c r="E498" s="1">
         <v>0.75</v>
       </c>
       <c r="F498">
@@ -15957,7 +15959,7 @@
       <c r="D499">
         <v>1</v>
       </c>
-      <c r="E499">
+      <c r="E499" s="1">
         <v>0.3</v>
       </c>
       <c r="F499">
@@ -15983,7 +15985,7 @@
       <c r="D500">
         <v>1</v>
       </c>
-      <c r="E500">
+      <c r="E500" s="1">
         <v>0.6</v>
       </c>
       <c r="F500">
@@ -16009,7 +16011,7 @@
       <c r="D501">
         <v>1</v>
       </c>
-      <c r="E501">
+      <c r="E501" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F501">
@@ -16035,7 +16037,7 @@
       <c r="D502">
         <v>1</v>
       </c>
-      <c r="E502">
+      <c r="E502" s="1">
         <v>0.8</v>
       </c>
       <c r="F502">
@@ -16061,7 +16063,7 @@
       <c r="D503">
         <v>2</v>
       </c>
-      <c r="E503">
+      <c r="E503" s="1">
         <v>0.5</v>
       </c>
       <c r="F503">
@@ -16087,7 +16089,7 @@
       <c r="D504">
         <v>1</v>
       </c>
-      <c r="E504">
+      <c r="E504" s="1">
         <v>0.5</v>
       </c>
       <c r="F504">
@@ -16113,7 +16115,7 @@
       <c r="D505">
         <v>1</v>
       </c>
-      <c r="E505">
+      <c r="E505" s="1">
         <v>0.5</v>
       </c>
       <c r="F505">
@@ -16139,7 +16141,7 @@
       <c r="D506">
         <v>1</v>
       </c>
-      <c r="E506">
+      <c r="E506" s="1">
         <v>0.5</v>
       </c>
       <c r="F506">
@@ -16165,7 +16167,7 @@
       <c r="D507">
         <v>1</v>
       </c>
-      <c r="E507">
+      <c r="E507" s="1">
         <v>0.3</v>
       </c>
       <c r="F507">
@@ -16191,7 +16193,7 @@
       <c r="D508">
         <v>1</v>
       </c>
-      <c r="E508">
+      <c r="E508" s="1">
         <v>0.3</v>
       </c>
       <c r="F508">
@@ -16217,7 +16219,7 @@
       <c r="D509">
         <v>1</v>
       </c>
-      <c r="E509">
+      <c r="E509" s="1">
         <v>0.65</v>
       </c>
       <c r="F509">
@@ -16243,7 +16245,7 @@
       <c r="D510">
         <v>1</v>
       </c>
-      <c r="E510">
+      <c r="E510" s="1">
         <v>0.3</v>
       </c>
       <c r="F510">
@@ -16269,7 +16271,7 @@
       <c r="D511">
         <v>1</v>
       </c>
-      <c r="E511">
+      <c r="E511" s="1">
         <v>0.4</v>
       </c>
       <c r="F511">
@@ -16295,7 +16297,7 @@
       <c r="D512">
         <v>1</v>
       </c>
-      <c r="E512">
+      <c r="E512" s="1">
         <v>0.4</v>
       </c>
       <c r="F512">
@@ -16321,7 +16323,7 @@
       <c r="D513">
         <v>1</v>
       </c>
-      <c r="E513">
+      <c r="E513" s="1">
         <v>0.4</v>
       </c>
       <c r="F513">
@@ -16347,7 +16349,7 @@
       <c r="D514">
         <v>1</v>
       </c>
-      <c r="E514">
+      <c r="E514" s="1">
         <v>0.4</v>
       </c>
       <c r="F514">
@@ -16373,7 +16375,7 @@
       <c r="D515">
         <v>1</v>
       </c>
-      <c r="E515">
+      <c r="E515" s="1">
         <v>0.65</v>
       </c>
       <c r="F515">
@@ -16399,7 +16401,7 @@
       <c r="D516">
         <v>1</v>
       </c>
-      <c r="E516">
+      <c r="E516" s="1">
         <v>0.7</v>
       </c>
       <c r="F516">
@@ -16425,7 +16427,7 @@
       <c r="D517">
         <v>1</v>
       </c>
-      <c r="E517">
+      <c r="E517" s="1">
         <v>0.5</v>
       </c>
       <c r="F517">
@@ -16451,7 +16453,7 @@
       <c r="D518">
         <v>1</v>
       </c>
-      <c r="E518">
+      <c r="E518" s="1">
         <v>0.5</v>
       </c>
       <c r="F518">
@@ -16477,7 +16479,7 @@
       <c r="D519">
         <v>1</v>
       </c>
-      <c r="E519">
+      <c r="E519" s="1">
         <v>0.5</v>
       </c>
       <c r="F519">
@@ -16503,7 +16505,7 @@
       <c r="D520">
         <v>1</v>
       </c>
-      <c r="E520">
+      <c r="E520" s="1">
         <v>0.45</v>
       </c>
       <c r="F520">
@@ -16529,7 +16531,7 @@
       <c r="D521">
         <v>1</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F521">
@@ -16555,7 +16557,7 @@
       <c r="D522">
         <v>1</v>
       </c>
-      <c r="E522">
+      <c r="E522" s="1">
         <v>0.6</v>
       </c>
       <c r="F522">
@@ -16581,7 +16583,7 @@
       <c r="D523">
         <v>1</v>
       </c>
-      <c r="E523">
+      <c r="E523" s="1">
         <v>0.6</v>
       </c>
       <c r="F523">
@@ -16607,7 +16609,7 @@
       <c r="D524">
         <v>1</v>
       </c>
-      <c r="E524">
+      <c r="E524" s="1">
         <v>0.7</v>
       </c>
       <c r="F524">
@@ -16633,7 +16635,7 @@
       <c r="D525">
         <v>1</v>
       </c>
-      <c r="E525">
+      <c r="E525" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F525">
@@ -16659,7 +16661,7 @@
       <c r="D526">
         <v>1</v>
       </c>
-      <c r="E526">
+      <c r="E526" s="1">
         <v>0.5</v>
       </c>
       <c r="F526">
@@ -16685,7 +16687,7 @@
       <c r="D527">
         <v>1</v>
       </c>
-      <c r="E527">
+      <c r="E527" s="1">
         <v>0.65</v>
       </c>
       <c r="F527">
@@ -16711,7 +16713,7 @@
       <c r="D528">
         <v>1</v>
       </c>
-      <c r="E528">
+      <c r="E528" s="1">
         <v>0.65</v>
       </c>
       <c r="F528">
@@ -16737,7 +16739,7 @@
       <c r="D529">
         <v>1</v>
       </c>
-      <c r="E529">
+      <c r="E529" s="1">
         <v>0.65</v>
       </c>
       <c r="F529">
@@ -16763,7 +16765,7 @@
       <c r="D530">
         <v>1</v>
       </c>
-      <c r="E530">
+      <c r="E530" s="1">
         <v>0.8</v>
       </c>
       <c r="F530">
@@ -16789,7 +16791,7 @@
       <c r="D531">
         <v>2</v>
       </c>
-      <c r="E531">
+      <c r="E531" s="1">
         <v>0.4</v>
       </c>
       <c r="F531">
@@ -16815,7 +16817,7 @@
       <c r="D532">
         <v>1</v>
       </c>
-      <c r="E532">
+      <c r="E532" s="1">
         <v>0.7</v>
       </c>
       <c r="F532">
@@ -16841,7 +16843,7 @@
       <c r="D533">
         <v>2</v>
       </c>
-      <c r="E533">
+      <c r="E533" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F533">
@@ -16867,7 +16869,7 @@
       <c r="D534">
         <v>1</v>
       </c>
-      <c r="E534">
+      <c r="E534" s="1">
         <v>0.5</v>
       </c>
       <c r="F534">
@@ -16893,7 +16895,7 @@
       <c r="D535">
         <v>2</v>
       </c>
-      <c r="E535">
+      <c r="E535" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F535">
@@ -16919,7 +16921,7 @@
       <c r="D536">
         <v>2</v>
       </c>
-      <c r="E536">
+      <c r="E536" s="1">
         <v>0.65</v>
       </c>
       <c r="F536">
@@ -16945,7 +16947,7 @@
       <c r="D537">
         <v>2</v>
       </c>
-      <c r="E537">
+      <c r="E537" s="1">
         <v>0.75</v>
       </c>
       <c r="F537">
@@ -16971,7 +16973,7 @@
       <c r="D538">
         <v>1</v>
       </c>
-      <c r="E538">
+      <c r="E538" s="1">
         <v>0.4</v>
       </c>
       <c r="F538">
@@ -16997,7 +16999,7 @@
       <c r="D539">
         <v>1</v>
       </c>
-      <c r="E539">
+      <c r="E539" s="1">
         <v>0.4</v>
       </c>
       <c r="F539">
@@ -17023,7 +17025,7 @@
       <c r="D540">
         <v>1</v>
       </c>
-      <c r="E540">
+      <c r="E540" s="1">
         <v>0.4</v>
       </c>
       <c r="F540">
@@ -17049,7 +17051,7 @@
       <c r="D541">
         <v>1</v>
       </c>
-      <c r="E541">
+      <c r="E541" s="1">
         <v>0.4</v>
       </c>
       <c r="F541">
@@ -17075,7 +17077,7 @@
       <c r="D542">
         <v>1</v>
       </c>
-      <c r="E542">
+      <c r="E542" s="1">
         <v>0.7</v>
       </c>
       <c r="F542">
@@ -17101,7 +17103,7 @@
       <c r="D543">
         <v>1</v>
       </c>
-      <c r="E543">
+      <c r="E543" s="1">
         <v>0.5</v>
       </c>
       <c r="F543">
@@ -17127,7 +17129,7 @@
       <c r="D544">
         <v>1</v>
       </c>
-      <c r="E544">
+      <c r="E544" s="1">
         <v>0.5</v>
       </c>
       <c r="F544">
@@ -17140,754 +17142,3906 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>2</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F545">
+        <v>3</v>
+      </c>
+      <c r="G545">
+        <v>3</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>4</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F546">
+        <v>2</v>
+      </c>
+      <c r="G546">
+        <v>2</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>4</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F547">
+        <v>3</v>
+      </c>
+      <c r="G547">
+        <v>2</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>2</v>
+      </c>
+      <c r="E548" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F548">
+        <v>4</v>
+      </c>
+      <c r="G548">
+        <v>3</v>
+      </c>
+      <c r="H548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>2</v>
+      </c>
+      <c r="E549" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F549">
+        <v>4</v>
+      </c>
+      <c r="G549">
+        <v>3</v>
+      </c>
+      <c r="H549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F550">
+        <v>3</v>
+      </c>
+      <c r="G550">
+        <v>3</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551">
+        <v>3</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>3</v>
+      </c>
+      <c r="E551" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>2</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>2</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>2</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553">
+        <v>2</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>2</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554">
+        <v>2</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>2</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>3</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F555">
+        <v>4</v>
+      </c>
+      <c r="G555">
+        <v>4</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F557">
+        <v>1</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>2</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F558">
+        <v>2</v>
+      </c>
+      <c r="G558">
+        <v>2</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559">
+        <v>2</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F559">
+        <v>5</v>
+      </c>
+      <c r="G559">
+        <v>5</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>2</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+      <c r="G561">
+        <v>3</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562">
+        <v>2</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+      <c r="G562">
+        <v>3</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F563">
+        <v>4</v>
+      </c>
+      <c r="G563">
+        <v>5</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F564">
+        <v>3</v>
+      </c>
+      <c r="G564">
+        <v>4</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565">
+        <v>3</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F565">
+        <v>3</v>
+      </c>
+      <c r="G565">
+        <v>3</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F566">
+        <v>4</v>
+      </c>
+      <c r="G566">
+        <v>4</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567">
+        <v>2</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F567">
+        <v>3</v>
+      </c>
+      <c r="G567">
+        <v>3</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F568">
+        <v>2</v>
+      </c>
+      <c r="G568">
+        <v>3</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>3</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F569">
+        <v>2</v>
+      </c>
+      <c r="G569">
+        <v>4</v>
+      </c>
+      <c r="H569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570">
+        <v>3</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F570">
+        <v>2</v>
+      </c>
+      <c r="G570">
+        <v>4</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B571">
+        <v>3</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F571">
+        <v>3</v>
+      </c>
+      <c r="G571">
+        <v>4</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>4</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F572">
+        <v>2</v>
+      </c>
+      <c r="G572">
+        <v>3</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B573">
+        <v>3</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F573">
+        <v>4</v>
+      </c>
+      <c r="G573">
+        <v>3</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B574">
+        <v>2</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>3</v>
+      </c>
+      <c r="E574" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F574">
+        <v>3</v>
+      </c>
+      <c r="G574">
+        <v>3</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>1</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F575">
+        <v>3</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B576">
+        <v>2</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="G576">
+        <v>3</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B577">
+        <v>1</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>3</v>
+      </c>
+      <c r="E577" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F577">
+        <v>4</v>
+      </c>
+      <c r="G577">
+        <v>4</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
+        <v>3</v>
+      </c>
+      <c r="E578" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F578">
+        <v>4</v>
+      </c>
+      <c r="G578">
+        <v>4</v>
+      </c>
+      <c r="H578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B579">
+        <v>2</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>2</v>
+      </c>
+      <c r="E579" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F579">
+        <v>4</v>
+      </c>
+      <c r="G579">
+        <v>3</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B580">
+        <v>4</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F580">
+        <v>4</v>
+      </c>
+      <c r="G580">
+        <v>3</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F581">
+        <v>3</v>
+      </c>
+      <c r="G581">
+        <v>3</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582" s="1">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>5</v>
+      </c>
+      <c r="G582">
+        <v>5</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>2</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F583">
+        <v>5</v>
+      </c>
+      <c r="G583">
+        <v>3</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>0</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F584">
+        <v>5</v>
+      </c>
+      <c r="G584">
+        <v>4</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B585">
+        <v>2</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585">
+        <v>2</v>
+      </c>
+      <c r="E585" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F585">
+        <v>5</v>
+      </c>
+      <c r="G585">
+        <v>3</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B586">
+        <v>4</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>3</v>
+      </c>
+      <c r="E586" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F586">
+        <v>5</v>
+      </c>
+      <c r="G586">
+        <v>4</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F587">
+        <v>4</v>
+      </c>
+      <c r="G587">
+        <v>4</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B588">
+        <v>3</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F588">
+        <v>4</v>
+      </c>
+      <c r="G588">
+        <v>3</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B589">
+        <v>1</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F589">
+        <v>4</v>
+      </c>
+      <c r="G589">
+        <v>3</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>0</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F590">
+        <v>2</v>
+      </c>
+      <c r="G590">
+        <v>3</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F591">
+        <v>2</v>
+      </c>
+      <c r="G591">
+        <v>3</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592">
+        <v>4</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>2</v>
+      </c>
+      <c r="E592" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F592">
+        <v>4</v>
+      </c>
+      <c r="G592">
+        <v>4</v>
+      </c>
+      <c r="H592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>2</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F593">
+        <v>5</v>
+      </c>
+      <c r="G593">
+        <v>5</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F594">
+        <v>4</v>
+      </c>
+      <c r="G594">
+        <v>3</v>
+      </c>
+      <c r="H594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F595">
+        <v>3</v>
+      </c>
+      <c r="G595">
+        <v>3</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F596">
+        <v>4</v>
+      </c>
+      <c r="G596">
+        <v>4</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F597">
+        <v>3</v>
+      </c>
+      <c r="G597">
+        <v>3</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B598">
+        <v>0</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>4</v>
+      </c>
+      <c r="E598" s="1">
+        <v>1</v>
+      </c>
+      <c r="F598">
+        <v>5</v>
+      </c>
+      <c r="G598">
+        <v>4</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F599">
+        <v>4</v>
+      </c>
+      <c r="G599">
+        <v>2</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B600">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+      <c r="E600" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F600">
+        <v>3</v>
+      </c>
+      <c r="G600">
+        <v>3</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601" s="1">
+        <v>1</v>
+      </c>
+      <c r="F601">
+        <v>5</v>
+      </c>
+      <c r="G601">
+        <v>4</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>3</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F602">
+        <v>2</v>
+      </c>
+      <c r="G602">
+        <v>3</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F603">
+        <v>4</v>
+      </c>
+      <c r="G603">
+        <v>2</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F604">
+        <v>3</v>
+      </c>
+      <c r="G604">
+        <v>3</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F605">
+        <v>4</v>
+      </c>
+      <c r="G605">
+        <v>3</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>2</v>
+      </c>
+      <c r="E606" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F606">
+        <v>3</v>
+      </c>
+      <c r="G606">
+        <v>4</v>
+      </c>
+      <c r="H606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B607">
+        <v>1</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607">
+        <v>2</v>
+      </c>
+      <c r="E607" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F607">
+        <v>3</v>
+      </c>
+      <c r="G607">
+        <v>3</v>
+      </c>
+      <c r="H607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>0</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F608">
+        <v>4</v>
+      </c>
+      <c r="G608">
+        <v>4</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>2</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F609">
+        <v>3</v>
+      </c>
+      <c r="G609">
+        <v>3</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B610">
+        <v>0</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F610">
+        <v>2</v>
+      </c>
+      <c r="G610">
+        <v>2</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B611">
+        <v>2</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>2</v>
+      </c>
+      <c r="E611" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F611">
+        <v>2</v>
+      </c>
+      <c r="G611">
+        <v>3</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B612">
+        <v>4</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F612">
+        <v>2</v>
+      </c>
+      <c r="G612">
+        <v>2</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B613">
+        <v>2</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F613">
+        <v>1</v>
+      </c>
+      <c r="G613">
+        <v>2</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F614">
+        <v>5</v>
+      </c>
+      <c r="G614">
+        <v>4</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B615">
+        <v>1</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F615">
+        <v>4</v>
+      </c>
+      <c r="G615">
+        <v>4</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B616">
+        <v>0</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
+        <v>2</v>
+      </c>
+      <c r="E616" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F616">
+        <v>3</v>
+      </c>
+      <c r="G616">
+        <v>2</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>3</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F617">
+        <v>5</v>
+      </c>
+      <c r="G617">
+        <v>3</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B618">
+        <v>4</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F618">
+        <v>5</v>
+      </c>
+      <c r="G618">
+        <v>4</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B619">
+        <v>2</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+      <c r="E619" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F619">
+        <v>3</v>
+      </c>
+      <c r="G619">
+        <v>3</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B620">
+        <v>2</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="E620" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F620">
+        <v>1</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B621">
+        <v>0</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="E621" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F621">
+        <v>2</v>
+      </c>
+      <c r="G621">
+        <v>2</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F622">
+        <v>4</v>
+      </c>
+      <c r="G622">
+        <v>3</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623">
+        <v>2</v>
+      </c>
+      <c r="E623" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F623">
+        <v>2</v>
+      </c>
+      <c r="G623">
+        <v>3</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B624">
+        <v>1</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F624">
+        <v>3</v>
+      </c>
+      <c r="G624">
+        <v>2</v>
+      </c>
+      <c r="H624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B625">
+        <v>3</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F625">
+        <v>4</v>
+      </c>
+      <c r="G625">
+        <v>3</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B626">
+        <v>1</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="E626" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F626">
+        <v>4</v>
+      </c>
+      <c r="G626">
+        <v>3</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="E627" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F627">
+        <v>3</v>
+      </c>
+      <c r="G627">
+        <v>2</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="E628" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F628">
+        <v>4</v>
+      </c>
+      <c r="G628">
+        <v>5</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>0</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629">
+        <v>2</v>
+      </c>
+      <c r="E629" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F629">
+        <v>5</v>
+      </c>
+      <c r="G629">
+        <v>3</v>
+      </c>
+      <c r="H629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B630">
+        <v>0</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630">
+        <v>2</v>
+      </c>
+      <c r="E630" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F630">
+        <v>4</v>
+      </c>
+      <c r="G630">
+        <v>3</v>
+      </c>
+      <c r="H630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B631">
+        <v>2</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+      <c r="E631" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F631">
+        <v>2</v>
+      </c>
+      <c r="G631">
+        <v>2</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F632">
+        <v>2</v>
+      </c>
+      <c r="G632">
+        <v>2</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F633">
+        <v>2</v>
+      </c>
+      <c r="G633">
+        <v>2</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B634">
+        <v>3</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F634">
+        <v>3</v>
+      </c>
+      <c r="G634">
+        <v>2</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B635">
+        <v>3</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+      <c r="E635" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F635">
+        <v>2</v>
+      </c>
+      <c r="G635">
+        <v>2</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B636">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+      <c r="E636" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F636">
+        <v>2</v>
+      </c>
+      <c r="G636">
+        <v>1</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B637">
+        <v>1</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+      <c r="G637">
+        <v>1</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B638">
+        <v>0</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+      <c r="D638">
+        <v>4</v>
+      </c>
+      <c r="E638" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F638">
+        <v>2</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+      <c r="D639">
+        <v>1</v>
+      </c>
+      <c r="E639" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F639">
+        <v>2</v>
+      </c>
+      <c r="G639">
+        <v>4</v>
+      </c>
+      <c r="H639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B640">
+        <v>0</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640" s="1">
+        <v>1</v>
+      </c>
+      <c r="F640">
+        <v>2</v>
+      </c>
+      <c r="G640">
+        <v>2</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B641">
+        <v>0</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F641">
+        <v>4</v>
+      </c>
+      <c r="G641">
+        <v>4</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B642">
+        <v>0</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F642">
+        <v>5</v>
+      </c>
+      <c r="G642">
+        <v>5</v>
+      </c>
+      <c r="H642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B643">
+        <v>5</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+      <c r="E643" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F643">
+        <v>2</v>
+      </c>
+      <c r="G643">
+        <v>2</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>5</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+      <c r="E644" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F644">
+        <v>3</v>
+      </c>
+      <c r="G644">
+        <v>5</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B645">
+        <v>0</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+      <c r="E645" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F645">
+        <v>3</v>
+      </c>
+      <c r="G645">
+        <v>3</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B646">
+        <v>0</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
+      </c>
+      <c r="E646" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F646">
+        <v>3</v>
+      </c>
+      <c r="G646">
+        <v>3</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+      <c r="E647" s="1">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>1</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B648">
+        <v>2</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+      <c r="D648">
+        <v>2</v>
+      </c>
+      <c r="E648" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F648">
+        <v>1</v>
+      </c>
+      <c r="G648">
+        <v>2</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B649">
+        <v>2</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+      <c r="D649">
+        <v>2</v>
+      </c>
+      <c r="E649" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+      <c r="G649">
+        <v>2</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B650">
+        <v>5</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F650">
+        <v>3</v>
+      </c>
+      <c r="G650">
+        <v>5</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B651">
+        <v>5</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F651">
+        <v>3</v>
+      </c>
+      <c r="G651">
+        <v>5</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F652">
+        <v>5</v>
+      </c>
+      <c r="G652">
+        <v>5</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B653">
+        <v>4</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F653">
+        <v>2</v>
+      </c>
+      <c r="G653">
+        <v>2</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B654">
+        <v>0</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F654">
+        <v>3</v>
+      </c>
+      <c r="G654">
+        <v>3</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B655">
+        <v>3</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F655">
+        <v>2</v>
+      </c>
+      <c r="G655">
+        <v>4</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B656">
+        <v>1</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F656">
+        <v>3</v>
+      </c>
+      <c r="G656">
+        <v>4</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F657">
+        <v>2</v>
+      </c>
+      <c r="G657">
+        <v>2</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B658">
+        <v>2</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>4</v>
+      </c>
+      <c r="E658" s="1">
+        <v>1</v>
+      </c>
+      <c r="F658">
+        <v>3</v>
+      </c>
+      <c r="G658">
+        <v>2</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B659">
+        <v>5</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F659">
+        <v>2</v>
+      </c>
+      <c r="G659">
+        <v>1</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660">
+        <v>2</v>
+      </c>
+      <c r="E660" s="1">
+        <v>1</v>
+      </c>
+      <c r="F660">
+        <v>3</v>
+      </c>
+      <c r="G660">
+        <v>3</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F661">
+        <v>2</v>
+      </c>
+      <c r="G661">
+        <v>3</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B662">
+        <v>4</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>2</v>
+      </c>
+      <c r="E662" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F662">
+        <v>2</v>
+      </c>
+      <c r="G662">
+        <v>2</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+      <c r="E663" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F663">
+        <v>2</v>
+      </c>
+      <c r="G663">
+        <v>2</v>
+      </c>
+      <c r="H663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+      <c r="D664">
+        <v>5</v>
+      </c>
+      <c r="E664" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F664">
+        <v>5</v>
+      </c>
+      <c r="G664">
+        <v>3</v>
+      </c>
+      <c r="H664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B665">
+        <v>4</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+      <c r="E665" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+      <c r="G665">
+        <v>1</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B666">
+        <v>5</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F666">
+        <v>1</v>
+      </c>
+      <c r="G666">
+        <v>2</v>
+      </c>
+      <c r="H666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B667">
+        <v>4</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+      <c r="D667">
+        <v>2</v>
+      </c>
+      <c r="E667" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F667">
+        <v>4</v>
+      </c>
+      <c r="G667">
+        <v>2</v>
+      </c>
+      <c r="H667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F668">
+        <v>2</v>
+      </c>
+      <c r="G668">
+        <v>2</v>
+      </c>
+      <c r="H668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B669">
+        <v>4</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F669">
+        <v>2</v>
+      </c>
+      <c r="G669">
+        <v>2</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B670">
+        <v>5</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F670">
+        <v>5</v>
+      </c>
+      <c r="G670">
+        <v>2</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B671">
+        <v>5</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F671">
+        <v>3</v>
+      </c>
+      <c r="G671">
+        <v>2</v>
+      </c>
+      <c r="H671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B672">
+        <v>5</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F672">
+        <v>3</v>
+      </c>
+      <c r="G672">
+        <v>2</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B673">
+        <v>5</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F673">
+        <v>2</v>
+      </c>
+      <c r="G673">
+        <v>2</v>
+      </c>
+      <c r="H673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B674">
+        <v>4</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F674">
+        <v>2</v>
+      </c>
+      <c r="G674">
+        <v>1</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B675">
+        <v>5</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675" s="1">
+        <v>1</v>
+      </c>
+      <c r="F675">
+        <v>3</v>
+      </c>
+      <c r="G675">
+        <v>2</v>
+      </c>
+      <c r="H675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B676">
+        <v>3</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676">
+        <v>3</v>
+      </c>
+      <c r="E676" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F676">
+        <v>5</v>
+      </c>
+      <c r="G676">
+        <v>3</v>
+      </c>
+      <c r="H676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B677">
+        <v>4</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F677">
+        <v>2</v>
+      </c>
+      <c r="G677">
+        <v>2</v>
+      </c>
+      <c r="H677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B678">
+        <v>3</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>2</v>
+      </c>
+      <c r="E678" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F678">
+        <v>5</v>
+      </c>
+      <c r="G678">
+        <v>3</v>
+      </c>
+      <c r="H678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B679">
+        <v>2</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>2</v>
+      </c>
+      <c r="E679" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F679">
+        <v>4</v>
+      </c>
+      <c r="G679">
+        <v>3</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B680">
+        <v>3</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F680">
+        <v>2</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+      <c r="H680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B681">
+        <v>4</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F681">
+        <v>5</v>
+      </c>
+      <c r="G681">
+        <v>3</v>
+      </c>
+      <c r="H681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B682">
+        <v>5</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F682">
+        <v>3</v>
+      </c>
+      <c r="G682">
+        <v>3</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F683">
+        <v>0</v>
+      </c>
+      <c r="G683">
+        <v>1</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B684">
+        <v>5</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F684">
+        <v>2</v>
+      </c>
+      <c r="G684">
+        <v>2</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>1</v>
+      </c>
+      <c r="E685" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F685">
+        <v>2</v>
+      </c>
+      <c r="G685">
+        <v>2</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F686">
+        <v>2</v>
+      </c>
+      <c r="G686">
+        <v>2</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F687">
+        <v>2</v>
+      </c>
+      <c r="G687">
+        <v>2</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B688">
+        <v>0</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F688">
+        <v>2</v>
+      </c>
+      <c r="G688">
+        <v>2</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B689">
+        <v>5</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F689">
+        <v>4</v>
+      </c>
+      <c r="G689">
+        <v>2</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="J689" s="1"/>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B690">
+        <v>2</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F690">
+        <v>3</v>
+      </c>
+      <c r="G690">
+        <v>2</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B691">
+        <v>1</v>
+      </c>
+      <c r="C691">
+        <v>1</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F691">
+        <v>5</v>
+      </c>
+      <c r="G691">
+        <v>4</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+      <c r="J691" s="1"/>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B692">
+        <v>2</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>2</v>
+      </c>
+      <c r="E692" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F692">
+        <v>5</v>
+      </c>
+      <c r="G692">
+        <v>4</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+      <c r="D693">
+        <v>3</v>
+      </c>
+      <c r="E693" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F693">
+        <v>2</v>
+      </c>
+      <c r="G693">
+        <v>3</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>700</v>
+      </c>
+      <c r="B694">
+        <v>5</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>1</v>
+      </c>
+      <c r="E694" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F694">
+        <v>2</v>
+      </c>
+      <c r="G694">
+        <v>4</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/labels/phenotype_labels.xlsx
+++ b/labels/phenotype_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoniemelainen/branchphenotyper/labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavlina/Documents/Helsinki/2nd_Semester/DS_project/repo/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CC755-91CD-9B42-AB3C-6D9CC9CC2EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45680FD-014A-7740-ACA9-30860AFF10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76400" yWindow="-13120" windowWidth="38120" windowHeight="39220" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
+    <workbookView xWindow="-13000" yWindow="-28300" windowWidth="25600" windowHeight="27340" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="birch_labels_final" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
   <si>
     <t>filename</t>
   </si>
@@ -2139,6 +2139,189 @@
   </si>
   <si>
     <t>Sampo_7th_March_58.jpg</t>
+  </si>
+  <si>
+    <t>IMG_0168.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0169.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0170.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0171.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0172.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0173.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0174.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0175.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0176.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0177.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0178.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0179.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0180.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0181.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0182.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0183.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0184.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0185.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0186.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0187.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0188.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0189.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0190.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0191.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0192.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0193.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0194.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0195.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0196.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0197.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0215.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0216.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0229.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0230.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0231.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0232.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0233.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0234.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0235.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0236.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_0237.jpeg</t>
+  </si>
+  <si>
+    <t>20250312_105749.jpg</t>
+  </si>
+  <si>
+    <t>20250312_105751.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1775.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1776.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1777.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1778.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2058.jpg</t>
+  </si>
+  <si>
+    <t>thumbnail_IMG_20250311_100739.jpg</t>
+  </si>
+  <si>
+    <t>2b2c23d6-041c-4e20-9136-54e425b5495f.JPG</t>
+  </si>
+  <si>
+    <t>8cca74bf-9d5f-47eb-af7c-0d1ae1f50f72.JPG</t>
+  </si>
+  <si>
+    <t>64bfc461-9792-443a-9ecb-663c2bc3078f.JPG</t>
+  </si>
+  <si>
+    <t>73a02ed3-d890-4856-8adf-c52b61e0a18f.JPG</t>
+  </si>
+  <si>
+    <t>101be827-c67d-4e59-ae6f-b0e7c0480db6.JPG</t>
+  </si>
+  <si>
+    <t>20250318_082751.jpg</t>
+  </si>
+  <si>
+    <t>20250318_082837.jpg</t>
+  </si>
+  <si>
+    <t>20250318_083027.jpg</t>
+  </si>
+  <si>
+    <t>51122251-361b-4def-955e-fdbe707c7347.JPG</t>
+  </si>
+  <si>
+    <t>a1f9a7c9-62f7-42be-b2c8-bfc08356dab2.JPG</t>
+  </si>
+  <si>
+    <t>a7bad178-a334-4e42-b12b-25c1f60a09a8.JPG</t>
+  </si>
+  <si>
+    <t>IMG_0029.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2983,13 +3166,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491470B8-0343-C542-AE89-86889CF720D3}">
-  <dimension ref="A1:J694"/>
+  <dimension ref="A1:J755"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B635" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B743" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E695" sqref="E695"/>
+      <selection pane="bottomRight" activeCell="A756" sqref="A756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21044,6 +21227,1592 @@
         <v>1</v>
       </c>
     </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>701</v>
+      </c>
+      <c r="B695">
+        <v>3</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F695">
+        <v>3</v>
+      </c>
+      <c r="G695">
+        <v>3</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>702</v>
+      </c>
+      <c r="B696">
+        <v>4</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+      <c r="D696">
+        <v>3</v>
+      </c>
+      <c r="E696" s="1">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>2</v>
+      </c>
+      <c r="G696">
+        <v>2</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>703</v>
+      </c>
+      <c r="B697">
+        <v>4</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F697">
+        <v>2</v>
+      </c>
+      <c r="G697">
+        <v>3</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>704</v>
+      </c>
+      <c r="B698">
+        <v>4</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
+      </c>
+      <c r="E698" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F698">
+        <v>2</v>
+      </c>
+      <c r="G698">
+        <v>3</v>
+      </c>
+      <c r="H698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>705</v>
+      </c>
+      <c r="B699">
+        <v>4</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+      <c r="E699" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F699">
+        <v>4</v>
+      </c>
+      <c r="G699">
+        <v>4</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>706</v>
+      </c>
+      <c r="B700">
+        <v>4</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F700">
+        <v>3</v>
+      </c>
+      <c r="G700">
+        <v>4</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>707</v>
+      </c>
+      <c r="B701">
+        <v>4</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>2</v>
+      </c>
+      <c r="E701" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F701">
+        <v>4</v>
+      </c>
+      <c r="G701">
+        <v>3</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>708</v>
+      </c>
+      <c r="B702">
+        <v>4</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
+      </c>
+      <c r="E702" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F702">
+        <v>4</v>
+      </c>
+      <c r="G702">
+        <v>4</v>
+      </c>
+      <c r="H702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>709</v>
+      </c>
+      <c r="B703">
+        <v>3</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>1</v>
+      </c>
+      <c r="E703" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F703">
+        <v>2</v>
+      </c>
+      <c r="G703">
+        <v>2</v>
+      </c>
+      <c r="H703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>710</v>
+      </c>
+      <c r="B704">
+        <v>3</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F704">
+        <v>3</v>
+      </c>
+      <c r="G704">
+        <v>2</v>
+      </c>
+      <c r="H704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>711</v>
+      </c>
+      <c r="B705">
+        <v>2</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F705">
+        <v>3</v>
+      </c>
+      <c r="G705">
+        <v>3</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>712</v>
+      </c>
+      <c r="B706">
+        <v>3</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F706">
+        <v>3</v>
+      </c>
+      <c r="G706">
+        <v>4</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>713</v>
+      </c>
+      <c r="B707">
+        <v>3</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+      <c r="G707">
+        <v>2</v>
+      </c>
+      <c r="H707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>714</v>
+      </c>
+      <c r="B708">
+        <v>4</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+      <c r="E708" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F708">
+        <v>5</v>
+      </c>
+      <c r="G708">
+        <v>3</v>
+      </c>
+      <c r="H708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>715</v>
+      </c>
+      <c r="B709">
+        <v>3</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F709">
+        <v>2</v>
+      </c>
+      <c r="G709">
+        <v>3</v>
+      </c>
+      <c r="H709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>716</v>
+      </c>
+      <c r="B710">
+        <v>5</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
+      </c>
+      <c r="E710" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F710">
+        <v>4</v>
+      </c>
+      <c r="G710">
+        <v>3</v>
+      </c>
+      <c r="H710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>717</v>
+      </c>
+      <c r="B711">
+        <v>5</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
+      </c>
+      <c r="E711" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F711">
+        <v>3</v>
+      </c>
+      <c r="G711">
+        <v>3</v>
+      </c>
+      <c r="H711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>718</v>
+      </c>
+      <c r="B712">
+        <v>5</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+      <c r="E712" s="1">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>4</v>
+      </c>
+      <c r="G712">
+        <v>2</v>
+      </c>
+      <c r="H712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>719</v>
+      </c>
+      <c r="B713">
+        <v>5</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713" s="1">
+        <v>1</v>
+      </c>
+      <c r="F713">
+        <v>4</v>
+      </c>
+      <c r="G713">
+        <v>2</v>
+      </c>
+      <c r="H713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>720</v>
+      </c>
+      <c r="B714">
+        <v>4</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+      <c r="D714">
+        <v>2</v>
+      </c>
+      <c r="E714" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F714">
+        <v>3</v>
+      </c>
+      <c r="G714">
+        <v>2</v>
+      </c>
+      <c r="H714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>721</v>
+      </c>
+      <c r="B715">
+        <v>5</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F715">
+        <v>2</v>
+      </c>
+      <c r="G715">
+        <v>2</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>722</v>
+      </c>
+      <c r="B716">
+        <v>3</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+      <c r="E716" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+      <c r="G716">
+        <v>2</v>
+      </c>
+      <c r="H716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>723</v>
+      </c>
+      <c r="B717">
+        <v>4</v>
+      </c>
+      <c r="C717">
+        <v>0</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F717">
+        <v>2</v>
+      </c>
+      <c r="G717">
+        <v>3</v>
+      </c>
+      <c r="H717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>724</v>
+      </c>
+      <c r="B718">
+        <v>5</v>
+      </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718" s="1">
+        <v>2</v>
+      </c>
+      <c r="F718">
+        <v>2</v>
+      </c>
+      <c r="G718">
+        <v>3</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>725</v>
+      </c>
+      <c r="B719">
+        <v>5</v>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F719">
+        <v>2</v>
+      </c>
+      <c r="G719">
+        <v>3</v>
+      </c>
+      <c r="H719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>726</v>
+      </c>
+      <c r="B720">
+        <v>3</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720">
+        <v>1</v>
+      </c>
+      <c r="E720" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F720">
+        <v>3</v>
+      </c>
+      <c r="G720">
+        <v>3</v>
+      </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>727</v>
+      </c>
+      <c r="B721">
+        <v>5</v>
+      </c>
+      <c r="C721">
+        <v>0</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F721">
+        <v>2</v>
+      </c>
+      <c r="G721">
+        <v>3</v>
+      </c>
+      <c r="H721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>728</v>
+      </c>
+      <c r="B722">
+        <v>5</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="E722" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F722">
+        <v>2</v>
+      </c>
+      <c r="G722">
+        <v>3</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>729</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F723">
+        <v>2</v>
+      </c>
+      <c r="G723">
+        <v>2</v>
+      </c>
+      <c r="H723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>730</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+      <c r="C724">
+        <v>0</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+      <c r="G724">
+        <v>1</v>
+      </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>731</v>
+      </c>
+      <c r="B725">
+        <v>5</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+      <c r="D725">
+        <v>2</v>
+      </c>
+      <c r="E725" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F725">
+        <v>3</v>
+      </c>
+      <c r="G725">
+        <v>5</v>
+      </c>
+      <c r="H725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>732</v>
+      </c>
+      <c r="B726">
+        <v>5</v>
+      </c>
+      <c r="C726">
+        <v>0</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+      <c r="E726" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F726">
+        <v>2</v>
+      </c>
+      <c r="G726">
+        <v>4</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>733</v>
+      </c>
+      <c r="B727">
+        <v>4</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+      <c r="D727">
+        <v>2</v>
+      </c>
+      <c r="E727" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F727">
+        <v>0</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+      <c r="H727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>734</v>
+      </c>
+      <c r="B728">
+        <v>5</v>
+      </c>
+      <c r="C728">
+        <v>0</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F728">
+        <v>4</v>
+      </c>
+      <c r="G728">
+        <v>3</v>
+      </c>
+      <c r="H728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>735</v>
+      </c>
+      <c r="B729">
+        <v>5</v>
+      </c>
+      <c r="C729">
+        <v>0</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F729">
+        <v>3</v>
+      </c>
+      <c r="G729">
+        <v>3</v>
+      </c>
+      <c r="H729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>736</v>
+      </c>
+      <c r="B730">
+        <v>5</v>
+      </c>
+      <c r="C730">
+        <v>0</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F730">
+        <v>2</v>
+      </c>
+      <c r="G730">
+        <v>2</v>
+      </c>
+      <c r="H730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>737</v>
+      </c>
+      <c r="B731">
+        <v>4</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F731">
+        <v>4</v>
+      </c>
+      <c r="G731">
+        <v>3</v>
+      </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>738</v>
+      </c>
+      <c r="B732">
+        <v>3</v>
+      </c>
+      <c r="C732">
+        <v>0</v>
+      </c>
+      <c r="D732">
+        <v>2</v>
+      </c>
+      <c r="E732" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F732">
+        <v>3</v>
+      </c>
+      <c r="G732">
+        <v>3</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>739</v>
+      </c>
+      <c r="B733">
+        <v>5</v>
+      </c>
+      <c r="C733">
+        <v>0</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="E733" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F733">
+        <v>4</v>
+      </c>
+      <c r="G733">
+        <v>3</v>
+      </c>
+      <c r="H733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>740</v>
+      </c>
+      <c r="B734">
+        <v>5</v>
+      </c>
+      <c r="C734">
+        <v>0</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F734">
+        <v>4</v>
+      </c>
+      <c r="G734">
+        <v>3</v>
+      </c>
+      <c r="H734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>741</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+      <c r="D735">
+        <v>3</v>
+      </c>
+      <c r="E735" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F735">
+        <v>5</v>
+      </c>
+      <c r="G735">
+        <v>4</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>742</v>
+      </c>
+      <c r="B736">
+        <v>3</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F736">
+        <v>4</v>
+      </c>
+      <c r="G736">
+        <v>4</v>
+      </c>
+      <c r="H736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>743</v>
+      </c>
+      <c r="B737">
+        <v>3</v>
+      </c>
+      <c r="C737">
+        <v>0</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F737">
+        <v>4</v>
+      </c>
+      <c r="G737">
+        <v>4</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>744</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+      <c r="C738">
+        <v>0</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F738">
+        <v>5</v>
+      </c>
+      <c r="G738">
+        <v>5</v>
+      </c>
+      <c r="H738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>745</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F739">
+        <v>5</v>
+      </c>
+      <c r="G739">
+        <v>5</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>746</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F740">
+        <v>5</v>
+      </c>
+      <c r="G740">
+        <v>5</v>
+      </c>
+      <c r="H740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>747</v>
+      </c>
+      <c r="B741">
+        <v>1</v>
+      </c>
+      <c r="C741">
+        <v>1</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F741">
+        <v>5</v>
+      </c>
+      <c r="G741">
+        <v>5</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>748</v>
+      </c>
+      <c r="B742">
+        <v>2</v>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F742">
+        <v>5</v>
+      </c>
+      <c r="G742">
+        <v>5</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>749</v>
+      </c>
+      <c r="B743">
+        <v>4</v>
+      </c>
+      <c r="C743">
+        <v>0</v>
+      </c>
+      <c r="D743">
+        <v>2</v>
+      </c>
+      <c r="E743" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F743">
+        <v>4</v>
+      </c>
+      <c r="G743">
+        <v>4</v>
+      </c>
+      <c r="H743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>750</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+      <c r="C744">
+        <v>0</v>
+      </c>
+      <c r="D744">
+        <v>1</v>
+      </c>
+      <c r="E744" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F744">
+        <v>1</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+      <c r="H744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>751</v>
+      </c>
+      <c r="B745">
+        <v>2</v>
+      </c>
+      <c r="C745">
+        <v>0</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F745">
+        <v>3</v>
+      </c>
+      <c r="G745">
+        <v>2</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>752</v>
+      </c>
+      <c r="B746">
+        <v>2</v>
+      </c>
+      <c r="C746">
+        <v>0</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F746">
+        <v>3</v>
+      </c>
+      <c r="G746">
+        <v>3</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>753</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+      <c r="C747">
+        <v>1</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F747">
+        <v>4</v>
+      </c>
+      <c r="G747">
+        <v>3</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>754</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+      <c r="C748">
+        <v>1</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F748">
+        <v>3</v>
+      </c>
+      <c r="G748">
+        <v>3</v>
+      </c>
+      <c r="H748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>755</v>
+      </c>
+      <c r="B749">
+        <v>3</v>
+      </c>
+      <c r="C749">
+        <v>1</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F749">
+        <v>1</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>756</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F750">
+        <v>3</v>
+      </c>
+      <c r="G750">
+        <v>3</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>757</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F751">
+        <v>2</v>
+      </c>
+      <c r="G751">
+        <v>2</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>758</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
+      </c>
+      <c r="E752" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F752">
+        <v>3</v>
+      </c>
+      <c r="G752">
+        <v>4</v>
+      </c>
+      <c r="H752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>759</v>
+      </c>
+      <c r="B753">
+        <v>3</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F753">
+        <v>2</v>
+      </c>
+      <c r="G753">
+        <v>3</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>760</v>
+      </c>
+      <c r="B754">
+        <v>3</v>
+      </c>
+      <c r="C754">
+        <v>0</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754" s="1">
+        <v>1</v>
+      </c>
+      <c r="F754">
+        <v>4</v>
+      </c>
+      <c r="G754">
+        <v>3</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>761</v>
+      </c>
+      <c r="B755">
+        <v>5</v>
+      </c>
+      <c r="C755">
+        <v>0</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F755">
+        <v>4</v>
+      </c>
+      <c r="G755">
+        <v>4</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H401" xr:uid="{491470B8-0343-C542-AE89-86889CF720D3}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/labels/phenotype_labels.xlsx
+++ b/labels/phenotype_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavlina/Documents/Helsinki/2nd_Semester/DS_project/repo/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45680FD-014A-7740-ACA9-30860AFF10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B81A9-B05B-5D4F-892C-9E55740A4829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13000" yWindow="-28300" windowWidth="25600" windowHeight="27340" xr2:uid="{863811EF-36C7-6E41-B14D-36C7835FD2B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="969">
   <si>
     <t>filename</t>
   </si>
@@ -2322,6 +2322,627 @@
   </si>
   <si>
     <t>IMG_0029.jpeg</t>
+  </si>
+  <si>
+    <t>20250321_092828.jpg</t>
+  </si>
+  <si>
+    <t>20250321_093332.jpg</t>
+  </si>
+  <si>
+    <t>20250321_093419.jpg</t>
+  </si>
+  <si>
+    <t>20250321_095250.jpg</t>
+  </si>
+  <si>
+    <t>20250321_100842.jpg</t>
+  </si>
+  <si>
+    <t>20250321_101105.jpg</t>
+  </si>
+  <si>
+    <t>20250321_101205.jpg</t>
+  </si>
+  <si>
+    <t>20250321_102346.jpg</t>
+  </si>
+  <si>
+    <t>20250321_102414.jpg</t>
+  </si>
+  <si>
+    <t>20250321_102526.jpg</t>
+  </si>
+  <si>
+    <t>20250322_105637.jpg</t>
+  </si>
+  <si>
+    <t>20250322_105700.jpg</t>
+  </si>
+  <si>
+    <t>20250322_105706.jpg</t>
+  </si>
+  <si>
+    <t>20250322_120147.jpg</t>
+  </si>
+  <si>
+    <t>20250322_120240.jpg</t>
+  </si>
+  <si>
+    <t>20250322_120250.jpg</t>
+  </si>
+  <si>
+    <t>20250322_121029.jpg</t>
+  </si>
+  <si>
+    <t>20250322_121206.jpg</t>
+  </si>
+  <si>
+    <t>20250322_121227.jpg</t>
+  </si>
+  <si>
+    <t>20250322_121406.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144538.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144610.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144700.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144709.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144735.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144752.jpg</t>
+  </si>
+  <si>
+    <t>20250322_144818.jpg</t>
+  </si>
+  <si>
+    <t>20250323_092458.jpg</t>
+  </si>
+  <si>
+    <t>20250323_093200.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094315.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094400.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094448.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094506.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094539.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094548.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094740.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094821.jpg</t>
+  </si>
+  <si>
+    <t>20250323_094905.jpg</t>
+  </si>
+  <si>
+    <t>20250323_095541.jpg</t>
+  </si>
+  <si>
+    <t>20250323_095745.jpg</t>
+  </si>
+  <si>
+    <t>20250323_095820.jpg</t>
+  </si>
+  <si>
+    <t>20250323_095837.jpg</t>
+  </si>
+  <si>
+    <t>20250323_095952.jpg</t>
+  </si>
+  <si>
+    <t>20250323_100915.jpg</t>
+  </si>
+  <si>
+    <t>20250323_100922.jpg</t>
+  </si>
+  <si>
+    <t>20250323_101002.jpg</t>
+  </si>
+  <si>
+    <t>20250323_101028.jpg</t>
+  </si>
+  <si>
+    <t>20250323_101118.jpg</t>
+  </si>
+  <si>
+    <t>20250323_101351.jpg</t>
+  </si>
+  <si>
+    <t>thumbnail_20250321_092942.jpg</t>
+  </si>
+  <si>
+    <t>thumbnail_20250321_095205.jpg</t>
+  </si>
+  <si>
+    <t>image87.jpeg</t>
+  </si>
+  <si>
+    <t>image88.jpeg</t>
+  </si>
+  <si>
+    <t>image89.jpeg</t>
+  </si>
+  <si>
+    <t>image90.jpeg</t>
+  </si>
+  <si>
+    <t>image91.jpeg</t>
+  </si>
+  <si>
+    <t>image92.jpeg</t>
+  </si>
+  <si>
+    <t>image93.jpeg</t>
+  </si>
+  <si>
+    <t>image94.jpeg</t>
+  </si>
+  <si>
+    <t>image95.jpeg</t>
+  </si>
+  <si>
+    <t>image96.jpeg</t>
+  </si>
+  <si>
+    <t>image97.jpeg</t>
+  </si>
+  <si>
+    <t>image98.jpeg</t>
+  </si>
+  <si>
+    <t>image99.jpeg</t>
+  </si>
+  <si>
+    <t>image100.jpeg</t>
+  </si>
+  <si>
+    <t>image101.jpeg</t>
+  </si>
+  <si>
+    <t>image102.jpeg</t>
+  </si>
+  <si>
+    <t>image103.jpeg</t>
+  </si>
+  <si>
+    <t>image104.jpeg</t>
+  </si>
+  <si>
+    <t>image105.jpeg</t>
+  </si>
+  <si>
+    <t>image106.jpeg</t>
+  </si>
+  <si>
+    <t>image107.jpeg</t>
+  </si>
+  <si>
+    <t>image108.jpeg</t>
+  </si>
+  <si>
+    <t>image109.jpeg</t>
+  </si>
+  <si>
+    <t>image110.jpeg</t>
+  </si>
+  <si>
+    <t>image111.jpeg</t>
+  </si>
+  <si>
+    <t>image112.jpeg</t>
+  </si>
+  <si>
+    <t>image113.jpeg</t>
+  </si>
+  <si>
+    <t>image114.jpeg</t>
+  </si>
+  <si>
+    <t>image115.jpeg</t>
+  </si>
+  <si>
+    <t>image116.jpeg</t>
+  </si>
+  <si>
+    <t>image117.jpeg</t>
+  </si>
+  <si>
+    <t>image118.jpeg</t>
+  </si>
+  <si>
+    <t>image119.jpeg</t>
+  </si>
+  <si>
+    <t>image120.jpeg</t>
+  </si>
+  <si>
+    <t>image121.jpeg</t>
+  </si>
+  <si>
+    <t>image122.jpeg</t>
+  </si>
+  <si>
+    <t>image123.jpeg</t>
+  </si>
+  <si>
+    <t>image124.jpeg</t>
+  </si>
+  <si>
+    <t>image125.jpeg</t>
+  </si>
+  <si>
+    <t>image126.jpeg</t>
+  </si>
+  <si>
+    <t>image127.jpeg</t>
+  </si>
+  <si>
+    <t>image128.jpeg</t>
+  </si>
+  <si>
+    <t>image129.jpeg</t>
+  </si>
+  <si>
+    <t>image130.jpeg</t>
+  </si>
+  <si>
+    <t>image131.jpeg</t>
+  </si>
+  <si>
+    <t>image132.jpeg</t>
+  </si>
+  <si>
+    <t>image133.jpeg</t>
+  </si>
+  <si>
+    <t>image134.jpeg</t>
+  </si>
+  <si>
+    <t>image135.jpeg</t>
+  </si>
+  <si>
+    <t>image136.jpeg</t>
+  </si>
+  <si>
+    <t>image137.jpeg</t>
+  </si>
+  <si>
+    <t>image138.jpeg</t>
+  </si>
+  <si>
+    <t>image139.jpeg</t>
+  </si>
+  <si>
+    <t>image140.jpeg</t>
+  </si>
+  <si>
+    <t>image141.jpeg</t>
+  </si>
+  <si>
+    <t>image142.jpeg</t>
+  </si>
+  <si>
+    <t>image143.jpeg</t>
+  </si>
+  <si>
+    <t>image144.jpeg</t>
+  </si>
+  <si>
+    <t>image145.jpeg</t>
+  </si>
+  <si>
+    <t>image146.jpeg</t>
+  </si>
+  <si>
+    <t>image147.jpeg</t>
+  </si>
+  <si>
+    <t>image148.jpeg</t>
+  </si>
+  <si>
+    <t>image149.jpeg</t>
+  </si>
+  <si>
+    <t>image150.jpeg</t>
+  </si>
+  <si>
+    <t>image151.jpeg</t>
+  </si>
+  <si>
+    <t>image152.jpeg</t>
+  </si>
+  <si>
+    <t>image153.jpeg</t>
+  </si>
+  <si>
+    <t>image154.jpeg</t>
+  </si>
+  <si>
+    <t>image155.jpeg</t>
+  </si>
+  <si>
+    <t>image156.jpeg</t>
+  </si>
+  <si>
+    <t>image157.jpeg</t>
+  </si>
+  <si>
+    <t>image158.jpeg</t>
+  </si>
+  <si>
+    <t>image159.jpeg</t>
+  </si>
+  <si>
+    <t>image160.jpeg</t>
+  </si>
+  <si>
+    <t>image161.jpeg</t>
+  </si>
+  <si>
+    <t>image162.jpeg</t>
+  </si>
+  <si>
+    <t>image163.jpeg</t>
+  </si>
+  <si>
+    <t>image164.jpeg</t>
+  </si>
+  <si>
+    <t>image165.jpeg</t>
+  </si>
+  <si>
+    <t>image166.jpeg</t>
+  </si>
+  <si>
+    <t>image167.jpeg</t>
+  </si>
+  <si>
+    <t>image168.jpeg</t>
+  </si>
+  <si>
+    <t>image169.jpeg</t>
+  </si>
+  <si>
+    <t>image170.jpeg</t>
+  </si>
+  <si>
+    <t>image171.jpeg</t>
+  </si>
+  <si>
+    <t>image172.jpeg</t>
+  </si>
+  <si>
+    <t>image173.jpeg</t>
+  </si>
+  <si>
+    <t>image174.jpeg</t>
+  </si>
+  <si>
+    <t>image175.jpeg</t>
+  </si>
+  <si>
+    <t>image176.jpeg</t>
+  </si>
+  <si>
+    <t>image177.jpeg</t>
+  </si>
+  <si>
+    <t>image178.jpeg</t>
+  </si>
+  <si>
+    <t>image179.jpeg</t>
+  </si>
+  <si>
+    <t>image180.jpeg</t>
+  </si>
+  <si>
+    <t>image181.jpeg</t>
+  </si>
+  <si>
+    <t>image182.jpeg</t>
+  </si>
+  <si>
+    <t>image183.jpeg</t>
+  </si>
+  <si>
+    <t>image184.jpeg</t>
+  </si>
+  <si>
+    <t>image185.jpeg</t>
+  </si>
+  <si>
+    <t>image186.jpeg</t>
+  </si>
+  <si>
+    <t>image187.jpeg</t>
+  </si>
+  <si>
+    <t>image188.jpeg</t>
+  </si>
+  <si>
+    <t>image189.jpeg</t>
+  </si>
+  <si>
+    <t>image190.jpeg</t>
+  </si>
+  <si>
+    <t>image191.jpeg</t>
+  </si>
+  <si>
+    <t>image192.jpeg</t>
+  </si>
+  <si>
+    <t>image193.jpeg</t>
+  </si>
+  <si>
+    <t>image194.jpeg</t>
+  </si>
+  <si>
+    <t>image195.jpeg</t>
+  </si>
+  <si>
+    <t>image196.jpeg</t>
+  </si>
+  <si>
+    <t>image197.jpeg</t>
+  </si>
+  <si>
+    <t>image198.jpeg</t>
+  </si>
+  <si>
+    <t>image199.jpeg</t>
+  </si>
+  <si>
+    <t>image200.jpeg</t>
+  </si>
+  <si>
+    <t>image201.jpeg</t>
+  </si>
+  <si>
+    <t>image202.jpeg</t>
+  </si>
+  <si>
+    <t>image203.jpeg</t>
+  </si>
+  <si>
+    <t>image204.jpeg</t>
+  </si>
+  <si>
+    <t>image205.jpeg</t>
+  </si>
+  <si>
+    <t>image206.jpeg</t>
+  </si>
+  <si>
+    <t>image207.jpeg</t>
+  </si>
+  <si>
+    <t>image208.jpeg</t>
+  </si>
+  <si>
+    <t>image209.jpeg</t>
+  </si>
+  <si>
+    <t>image210.jpeg</t>
+  </si>
+  <si>
+    <t>image211.jpeg</t>
+  </si>
+  <si>
+    <t>image212.jpeg</t>
+  </si>
+  <si>
+    <t>image213.jpeg</t>
+  </si>
+  <si>
+    <t>image214.jpeg</t>
+  </si>
+  <si>
+    <t>image215.jpeg</t>
+  </si>
+  <si>
+    <t>image216.jpeg</t>
+  </si>
+  <si>
+    <t>image217.jpeg</t>
+  </si>
+  <si>
+    <t>image218.jpeg</t>
+  </si>
+  <si>
+    <t>image219.jpeg</t>
+  </si>
+  <si>
+    <t>image220.jpeg</t>
+  </si>
+  <si>
+    <t>image221.jpeg</t>
+  </si>
+  <si>
+    <t>image222.jpeg</t>
+  </si>
+  <si>
+    <t>image223.jpeg</t>
+  </si>
+  <si>
+    <t>image224.jpeg</t>
+  </si>
+  <si>
+    <t>image225.jpeg</t>
+  </si>
+  <si>
+    <t>image226.jpeg</t>
+  </si>
+  <si>
+    <t>image227.jpeg</t>
+  </si>
+  <si>
+    <t>image228.jpeg</t>
+  </si>
+  <si>
+    <t>image229.jpeg</t>
+  </si>
+  <si>
+    <t>image230.jpeg</t>
+  </si>
+  <si>
+    <t>image231.jpeg</t>
+  </si>
+  <si>
+    <t>image232.jpeg</t>
+  </si>
+  <si>
+    <t>image233.jpeg</t>
+  </si>
+  <si>
+    <t>image234.jpeg</t>
+  </si>
+  <si>
+    <t>image235.jpeg</t>
+  </si>
+  <si>
+    <t>image236.jpeg</t>
+  </si>
+  <si>
+    <t>image237.jpeg</t>
+  </si>
+  <si>
+    <t>image238.jpeg</t>
+  </si>
+  <si>
+    <t>image239.jpeg</t>
+  </si>
+  <si>
+    <t>image240.jpeg</t>
+  </si>
+  <si>
+    <t>image241.jpeg</t>
+  </si>
+  <si>
+    <t>image242.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2788,9 +3409,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3166,13 +3789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491470B8-0343-C542-AE89-86889CF720D3}">
-  <dimension ref="A1:J755"/>
+  <dimension ref="A1:J962"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B743" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A756" sqref="A756"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22735,7 +23358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>759</v>
       </c>
@@ -22761,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>760</v>
       </c>
@@ -22787,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>761</v>
       </c>
@@ -22810,6 +23433,5397 @@
         <v>4</v>
       </c>
       <c r="H755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>762</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756">
+        <v>3</v>
+      </c>
+      <c r="E756" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F756">
+        <v>4</v>
+      </c>
+      <c r="G756">
+        <v>4</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756" s="2"/>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>763</v>
+      </c>
+      <c r="B757">
+        <v>2</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+      <c r="D757">
+        <v>1</v>
+      </c>
+      <c r="E757" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F757">
+        <v>2</v>
+      </c>
+      <c r="G757">
+        <v>2</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>764</v>
+      </c>
+      <c r="B758">
+        <v>2</v>
+      </c>
+      <c r="C758">
+        <v>0</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F758">
+        <v>3</v>
+      </c>
+      <c r="G758">
+        <v>2</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="I758" s="2"/>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>765</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F759">
+        <v>1</v>
+      </c>
+      <c r="G759">
+        <v>2</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>766</v>
+      </c>
+      <c r="B760">
+        <v>3</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F760">
+        <v>4</v>
+      </c>
+      <c r="G760">
+        <v>3</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+      <c r="I760" s="2"/>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>767</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F761">
+        <v>3</v>
+      </c>
+      <c r="G761">
+        <v>3</v>
+      </c>
+      <c r="H761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>768</v>
+      </c>
+      <c r="B762">
+        <v>1</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+      <c r="D762">
+        <v>2</v>
+      </c>
+      <c r="E762" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F762">
+        <v>2</v>
+      </c>
+      <c r="G762">
+        <v>2</v>
+      </c>
+      <c r="H762">
+        <v>0</v>
+      </c>
+      <c r="I762" s="2"/>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>769</v>
+      </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+      <c r="C763">
+        <v>0</v>
+      </c>
+      <c r="D763">
+        <v>2</v>
+      </c>
+      <c r="E763" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F763">
+        <v>2</v>
+      </c>
+      <c r="G763">
+        <v>2</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+      <c r="I763" s="2"/>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>770</v>
+      </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+      <c r="C764">
+        <v>1</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+      <c r="E764" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F764">
+        <v>1</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+      <c r="I764" s="2"/>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>771</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+      <c r="E765" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F765">
+        <v>4</v>
+      </c>
+      <c r="G765">
+        <v>3</v>
+      </c>
+      <c r="H765">
+        <v>0</v>
+      </c>
+      <c r="I765" s="2"/>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>772</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+      <c r="C766">
+        <v>0</v>
+      </c>
+      <c r="D766">
+        <v>2</v>
+      </c>
+      <c r="E766" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F766">
+        <v>4</v>
+      </c>
+      <c r="G766">
+        <v>3</v>
+      </c>
+      <c r="H766">
+        <v>1</v>
+      </c>
+      <c r="I766" s="2"/>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>773</v>
+      </c>
+      <c r="B767">
+        <v>2</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
+      </c>
+      <c r="E767" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F767">
+        <v>4</v>
+      </c>
+      <c r="G767">
+        <v>3</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+      <c r="I767" s="2"/>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>774</v>
+      </c>
+      <c r="B768">
+        <v>2</v>
+      </c>
+      <c r="C768">
+        <v>1</v>
+      </c>
+      <c r="D768">
+        <v>2</v>
+      </c>
+      <c r="E768" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F768">
+        <v>3</v>
+      </c>
+      <c r="G768">
+        <v>3</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>775</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+      <c r="E769" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F769">
+        <v>2</v>
+      </c>
+      <c r="G769">
+        <v>3</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>776</v>
+      </c>
+      <c r="B770">
+        <v>1</v>
+      </c>
+      <c r="C770">
+        <v>1</v>
+      </c>
+      <c r="D770">
+        <v>1</v>
+      </c>
+      <c r="E770" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F770">
+        <v>2</v>
+      </c>
+      <c r="G770">
+        <v>3</v>
+      </c>
+      <c r="H770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>777</v>
+      </c>
+      <c r="B771">
+        <v>2</v>
+      </c>
+      <c r="C771">
+        <v>1</v>
+      </c>
+      <c r="D771">
+        <v>1</v>
+      </c>
+      <c r="E771" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F771">
+        <v>2</v>
+      </c>
+      <c r="G771">
+        <v>3</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>778</v>
+      </c>
+      <c r="B772">
+        <v>1</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+      <c r="D772">
+        <v>2</v>
+      </c>
+      <c r="E772" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F772">
+        <v>5</v>
+      </c>
+      <c r="G772">
+        <v>4</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>779</v>
+      </c>
+      <c r="B773">
+        <v>2</v>
+      </c>
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
+      </c>
+      <c r="E773" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F773">
+        <v>3</v>
+      </c>
+      <c r="G773">
+        <v>3</v>
+      </c>
+      <c r="H773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>780</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+      <c r="C774">
+        <v>1</v>
+      </c>
+      <c r="D774">
+        <v>1</v>
+      </c>
+      <c r="E774" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F774">
+        <v>2</v>
+      </c>
+      <c r="G774">
+        <v>2</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>781</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+      <c r="D775">
+        <v>1</v>
+      </c>
+      <c r="E775" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F775">
+        <v>2</v>
+      </c>
+      <c r="G775">
+        <v>3</v>
+      </c>
+      <c r="H775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>782</v>
+      </c>
+      <c r="B776">
+        <v>3</v>
+      </c>
+      <c r="C776">
+        <v>0</v>
+      </c>
+      <c r="D776">
+        <v>1</v>
+      </c>
+      <c r="E776" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F776">
+        <v>3</v>
+      </c>
+      <c r="G776">
+        <v>3</v>
+      </c>
+      <c r="H776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>783</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+      <c r="E777" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F777">
+        <v>4</v>
+      </c>
+      <c r="G777">
+        <v>5</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>784</v>
+      </c>
+      <c r="B778">
+        <v>2</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F778">
+        <v>3</v>
+      </c>
+      <c r="G778">
+        <v>3</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>785</v>
+      </c>
+      <c r="B779">
+        <v>2</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+      <c r="D779">
+        <v>1</v>
+      </c>
+      <c r="E779" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F779">
+        <v>3</v>
+      </c>
+      <c r="G779">
+        <v>3</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>786</v>
+      </c>
+      <c r="B780">
+        <v>1</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+      <c r="D780">
+        <v>1</v>
+      </c>
+      <c r="E780" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F780">
+        <v>0</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>787</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>1</v>
+      </c>
+      <c r="E781" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F781">
+        <v>3</v>
+      </c>
+      <c r="G781">
+        <v>3</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>788</v>
+      </c>
+      <c r="B782">
+        <v>3</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+      <c r="D782">
+        <v>1</v>
+      </c>
+      <c r="E782" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F782">
+        <v>3</v>
+      </c>
+      <c r="G782">
+        <v>3</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>789</v>
+      </c>
+      <c r="B783">
+        <v>3</v>
+      </c>
+      <c r="C783">
+        <v>1</v>
+      </c>
+      <c r="D783">
+        <v>1</v>
+      </c>
+      <c r="E783" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F783">
+        <v>5</v>
+      </c>
+      <c r="G783">
+        <v>4</v>
+      </c>
+      <c r="H783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>790</v>
+      </c>
+      <c r="B784">
+        <v>3</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+      <c r="D784">
+        <v>1</v>
+      </c>
+      <c r="E784" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F784">
+        <v>4</v>
+      </c>
+      <c r="G784">
+        <v>4</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>791</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+      <c r="D785">
+        <v>1</v>
+      </c>
+      <c r="E785" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F785">
+        <v>2</v>
+      </c>
+      <c r="G785">
+        <v>3</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>792</v>
+      </c>
+      <c r="B786">
+        <v>1</v>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F786">
+        <v>3</v>
+      </c>
+      <c r="G786">
+        <v>4</v>
+      </c>
+      <c r="H786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>793</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+      <c r="D787">
+        <v>1</v>
+      </c>
+      <c r="E787" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F787">
+        <v>1</v>
+      </c>
+      <c r="G787">
+        <v>1</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>794</v>
+      </c>
+      <c r="B788">
+        <v>2</v>
+      </c>
+      <c r="C788">
+        <v>0</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+      <c r="E788" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F788">
+        <v>3</v>
+      </c>
+      <c r="G788">
+        <v>3</v>
+      </c>
+      <c r="H788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>795</v>
+      </c>
+      <c r="B789">
+        <v>2</v>
+      </c>
+      <c r="C789">
+        <v>0</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F789">
+        <v>3</v>
+      </c>
+      <c r="G789">
+        <v>4</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>796</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+      <c r="C790">
+        <v>1</v>
+      </c>
+      <c r="D790">
+        <v>1</v>
+      </c>
+      <c r="E790" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F790">
+        <v>3</v>
+      </c>
+      <c r="G790">
+        <v>3</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>797</v>
+      </c>
+      <c r="B791">
+        <v>2</v>
+      </c>
+      <c r="C791">
+        <v>0</v>
+      </c>
+      <c r="D791">
+        <v>1</v>
+      </c>
+      <c r="E791" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F791">
+        <v>4</v>
+      </c>
+      <c r="G791">
+        <v>3</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>798</v>
+      </c>
+      <c r="B792">
+        <v>2</v>
+      </c>
+      <c r="C792">
+        <v>0</v>
+      </c>
+      <c r="D792">
+        <v>2</v>
+      </c>
+      <c r="E792" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F792">
+        <v>3</v>
+      </c>
+      <c r="G792">
+        <v>3</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>799</v>
+      </c>
+      <c r="B793">
+        <v>1</v>
+      </c>
+      <c r="C793">
+        <v>0</v>
+      </c>
+      <c r="D793">
+        <v>2</v>
+      </c>
+      <c r="E793" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F793">
+        <v>2</v>
+      </c>
+      <c r="G793">
+        <v>3</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>800</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+      <c r="C794">
+        <v>0</v>
+      </c>
+      <c r="D794">
+        <v>1</v>
+      </c>
+      <c r="E794" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F794">
+        <v>3</v>
+      </c>
+      <c r="G794">
+        <v>3</v>
+      </c>
+      <c r="H794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>801</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+      <c r="C795">
+        <v>0</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F795">
+        <v>2</v>
+      </c>
+      <c r="G795">
+        <v>2</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>802</v>
+      </c>
+      <c r="B796">
+        <v>1</v>
+      </c>
+      <c r="C796">
+        <v>0</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F796">
+        <v>2</v>
+      </c>
+      <c r="G796">
+        <v>2</v>
+      </c>
+      <c r="H796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>803</v>
+      </c>
+      <c r="B797">
+        <v>2</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
+      </c>
+      <c r="D797">
+        <v>1</v>
+      </c>
+      <c r="E797" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F797">
+        <v>3</v>
+      </c>
+      <c r="G797">
+        <v>2</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>804</v>
+      </c>
+      <c r="B798">
+        <v>0</v>
+      </c>
+      <c r="C798">
+        <v>0</v>
+      </c>
+      <c r="D798">
+        <v>1</v>
+      </c>
+      <c r="E798" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F798">
+        <v>1</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+      <c r="H798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>805</v>
+      </c>
+      <c r="B799">
+        <v>2</v>
+      </c>
+      <c r="C799">
+        <v>0</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+      <c r="E799" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F799">
+        <v>1</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+      <c r="H799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>806</v>
+      </c>
+      <c r="B800">
+        <v>2</v>
+      </c>
+      <c r="C800">
+        <v>1</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F800">
+        <v>3</v>
+      </c>
+      <c r="G800">
+        <v>3</v>
+      </c>
+      <c r="H800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>807</v>
+      </c>
+      <c r="B801">
+        <v>3</v>
+      </c>
+      <c r="C801">
+        <v>0</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F801">
+        <v>2</v>
+      </c>
+      <c r="G801">
+        <v>2</v>
+      </c>
+      <c r="H801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>808</v>
+      </c>
+      <c r="B802">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+      <c r="D802">
+        <v>1</v>
+      </c>
+      <c r="E802" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F802">
+        <v>3</v>
+      </c>
+      <c r="G802">
+        <v>3</v>
+      </c>
+      <c r="H802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>809</v>
+      </c>
+      <c r="B803">
+        <v>2</v>
+      </c>
+      <c r="C803">
+        <v>0</v>
+      </c>
+      <c r="D803">
+        <v>2</v>
+      </c>
+      <c r="E803" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F803">
+        <v>1</v>
+      </c>
+      <c r="G803">
+        <v>2</v>
+      </c>
+      <c r="H803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>810</v>
+      </c>
+      <c r="B804">
+        <v>3</v>
+      </c>
+      <c r="C804">
+        <v>0</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F804">
+        <v>2</v>
+      </c>
+      <c r="G804">
+        <v>3</v>
+      </c>
+      <c r="H804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>811</v>
+      </c>
+      <c r="B805">
+        <v>2</v>
+      </c>
+      <c r="C805">
+        <v>1</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F805">
+        <v>4</v>
+      </c>
+      <c r="G805">
+        <v>3</v>
+      </c>
+      <c r="H805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>812</v>
+      </c>
+      <c r="B806">
+        <v>3</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+      <c r="D806">
+        <v>2</v>
+      </c>
+      <c r="E806" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F806">
+        <v>3</v>
+      </c>
+      <c r="G806">
+        <v>4</v>
+      </c>
+      <c r="H806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>813</v>
+      </c>
+      <c r="B807">
+        <v>5</v>
+      </c>
+      <c r="C807">
+        <v>0</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F807">
+        <v>4</v>
+      </c>
+      <c r="G807">
+        <v>5</v>
+      </c>
+      <c r="H807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>814</v>
+      </c>
+      <c r="B808">
+        <v>3</v>
+      </c>
+      <c r="C808">
+        <v>1</v>
+      </c>
+      <c r="D808">
+        <v>1</v>
+      </c>
+      <c r="E808" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F808">
+        <v>2</v>
+      </c>
+      <c r="G808">
+        <v>3</v>
+      </c>
+      <c r="H808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>815</v>
+      </c>
+      <c r="B809">
+        <v>2</v>
+      </c>
+      <c r="C809">
+        <v>1</v>
+      </c>
+      <c r="D809">
+        <v>1</v>
+      </c>
+      <c r="E809" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F809">
+        <v>3</v>
+      </c>
+      <c r="G809">
+        <v>3</v>
+      </c>
+      <c r="H809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>816</v>
+      </c>
+      <c r="B810">
+        <v>3</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810">
+        <v>1</v>
+      </c>
+      <c r="E810" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F810">
+        <v>3</v>
+      </c>
+      <c r="G810">
+        <v>3</v>
+      </c>
+      <c r="H810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>817</v>
+      </c>
+      <c r="B811">
+        <v>1</v>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+      <c r="D811">
+        <v>1</v>
+      </c>
+      <c r="E811" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F811">
+        <v>3</v>
+      </c>
+      <c r="G811">
+        <v>3</v>
+      </c>
+      <c r="H811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>818</v>
+      </c>
+      <c r="B812">
+        <v>2</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+      <c r="D812">
+        <v>1</v>
+      </c>
+      <c r="E812" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F812">
+        <v>3</v>
+      </c>
+      <c r="G812">
+        <v>3</v>
+      </c>
+      <c r="H812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>819</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
+      </c>
+      <c r="C813">
+        <v>1</v>
+      </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+      <c r="E813" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F813">
+        <v>2</v>
+      </c>
+      <c r="G813">
+        <v>3</v>
+      </c>
+      <c r="H813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>820</v>
+      </c>
+      <c r="B814">
+        <v>2</v>
+      </c>
+      <c r="C814">
+        <v>0</v>
+      </c>
+      <c r="D814">
+        <v>1</v>
+      </c>
+      <c r="E814" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F814">
+        <v>3</v>
+      </c>
+      <c r="G814">
+        <v>4</v>
+      </c>
+      <c r="H814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>821</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+      <c r="C815">
+        <v>1</v>
+      </c>
+      <c r="D815">
+        <v>1</v>
+      </c>
+      <c r="E815" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F815">
+        <v>1</v>
+      </c>
+      <c r="G815">
+        <v>0</v>
+      </c>
+      <c r="H815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>822</v>
+      </c>
+      <c r="B816">
+        <v>0</v>
+      </c>
+      <c r="C816">
+        <v>1</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+      <c r="E816" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F816">
+        <v>1</v>
+      </c>
+      <c r="G816">
+        <v>0</v>
+      </c>
+      <c r="H816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>823</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+      <c r="C817">
+        <v>1</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+      <c r="E817" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F817">
+        <v>1</v>
+      </c>
+      <c r="G817">
+        <v>0</v>
+      </c>
+      <c r="H817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>824</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+      <c r="C818">
+        <v>0</v>
+      </c>
+      <c r="D818">
+        <v>1</v>
+      </c>
+      <c r="E818" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F818">
+        <v>1</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+      <c r="H818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>825</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+      <c r="C819">
+        <v>0</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F819">
+        <v>2</v>
+      </c>
+      <c r="G819">
+        <v>3</v>
+      </c>
+      <c r="H819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>826</v>
+      </c>
+      <c r="B820">
+        <v>2</v>
+      </c>
+      <c r="C820">
+        <v>1</v>
+      </c>
+      <c r="D820">
+        <v>1</v>
+      </c>
+      <c r="E820" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F820">
+        <v>4</v>
+      </c>
+      <c r="G820">
+        <v>4</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>827</v>
+      </c>
+      <c r="B821">
+        <v>3</v>
+      </c>
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+      <c r="E821" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F821">
+        <v>4</v>
+      </c>
+      <c r="G821">
+        <v>4</v>
+      </c>
+      <c r="H821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>828</v>
+      </c>
+      <c r="B822">
+        <v>2</v>
+      </c>
+      <c r="C822">
+        <v>0</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F822">
+        <v>3</v>
+      </c>
+      <c r="G822">
+        <v>3</v>
+      </c>
+      <c r="H822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>829</v>
+      </c>
+      <c r="B823">
+        <v>3</v>
+      </c>
+      <c r="C823">
+        <v>0</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F823">
+        <v>1</v>
+      </c>
+      <c r="G823">
+        <v>0</v>
+      </c>
+      <c r="H823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>830</v>
+      </c>
+      <c r="B824">
+        <v>0</v>
+      </c>
+      <c r="C824">
+        <v>0</v>
+      </c>
+      <c r="D824">
+        <v>1</v>
+      </c>
+      <c r="E824" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F824">
+        <v>1</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>831</v>
+      </c>
+      <c r="B825">
+        <v>0</v>
+      </c>
+      <c r="C825">
+        <v>0</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F825">
+        <v>1</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+      <c r="H825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>832</v>
+      </c>
+      <c r="B826">
+        <v>0</v>
+      </c>
+      <c r="C826">
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>1</v>
+      </c>
+      <c r="E826" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F826">
+        <v>1</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>833</v>
+      </c>
+      <c r="B827">
+        <v>0</v>
+      </c>
+      <c r="C827">
+        <v>1</v>
+      </c>
+      <c r="D827">
+        <v>1</v>
+      </c>
+      <c r="E827" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F827">
+        <v>1</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>834</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+      <c r="C828">
+        <v>1</v>
+      </c>
+      <c r="D828">
+        <v>1</v>
+      </c>
+      <c r="E828" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F828">
+        <v>0</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>835</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+      <c r="C829">
+        <v>1</v>
+      </c>
+      <c r="D829">
+        <v>1</v>
+      </c>
+      <c r="E829" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F829">
+        <v>0</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+      <c r="H829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>836</v>
+      </c>
+      <c r="B830">
+        <v>1</v>
+      </c>
+      <c r="C830">
+        <v>0</v>
+      </c>
+      <c r="D830">
+        <v>1</v>
+      </c>
+      <c r="E830" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F830">
+        <v>0</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>837</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+      <c r="C831">
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <v>1</v>
+      </c>
+      <c r="E831" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F831">
+        <v>2</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+      <c r="H831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>838</v>
+      </c>
+      <c r="B832">
+        <v>3</v>
+      </c>
+      <c r="C832">
+        <v>0</v>
+      </c>
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="E832" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F832">
+        <v>1</v>
+      </c>
+      <c r="G832">
+        <v>1</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>839</v>
+      </c>
+      <c r="B833">
+        <v>1</v>
+      </c>
+      <c r="C833">
+        <v>0</v>
+      </c>
+      <c r="D833">
+        <v>3</v>
+      </c>
+      <c r="E833" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F833">
+        <v>2</v>
+      </c>
+      <c r="G833">
+        <v>1</v>
+      </c>
+      <c r="H833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>840</v>
+      </c>
+      <c r="B834">
+        <v>1</v>
+      </c>
+      <c r="C834">
+        <v>0</v>
+      </c>
+      <c r="D834">
+        <v>1</v>
+      </c>
+      <c r="E834" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F834">
+        <v>2</v>
+      </c>
+      <c r="G834">
+        <v>2</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>841</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
+      </c>
+      <c r="C835">
+        <v>0</v>
+      </c>
+      <c r="D835">
+        <v>2</v>
+      </c>
+      <c r="E835" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F835">
+        <v>1</v>
+      </c>
+      <c r="G835">
+        <v>1</v>
+      </c>
+      <c r="H835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>842</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+      <c r="C836">
+        <v>1</v>
+      </c>
+      <c r="D836">
+        <v>1</v>
+      </c>
+      <c r="E836" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F836">
+        <v>1</v>
+      </c>
+      <c r="G836">
+        <v>1</v>
+      </c>
+      <c r="H836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>843</v>
+      </c>
+      <c r="B837">
+        <v>3</v>
+      </c>
+      <c r="C837">
+        <v>0</v>
+      </c>
+      <c r="D837">
+        <v>2</v>
+      </c>
+      <c r="E837" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F837">
+        <v>1</v>
+      </c>
+      <c r="G837">
+        <v>1</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>844</v>
+      </c>
+      <c r="B838">
+        <v>2</v>
+      </c>
+      <c r="C838">
+        <v>0</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+      <c r="E838" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F838">
+        <v>3</v>
+      </c>
+      <c r="G838">
+        <v>2</v>
+      </c>
+      <c r="H838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>845</v>
+      </c>
+      <c r="B839">
+        <v>1</v>
+      </c>
+      <c r="C839">
+        <v>0</v>
+      </c>
+      <c r="D839">
+        <v>1</v>
+      </c>
+      <c r="E839" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F839">
+        <v>2</v>
+      </c>
+      <c r="G839">
+        <v>1</v>
+      </c>
+      <c r="H839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>846</v>
+      </c>
+      <c r="B840">
+        <v>1</v>
+      </c>
+      <c r="C840">
+        <v>0</v>
+      </c>
+      <c r="D840">
+        <v>1</v>
+      </c>
+      <c r="E840" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F840">
+        <v>3</v>
+      </c>
+      <c r="G840">
+        <v>2</v>
+      </c>
+      <c r="H840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>847</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+      <c r="C841">
+        <v>0</v>
+      </c>
+      <c r="D841">
+        <v>4</v>
+      </c>
+      <c r="E841" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F841">
+        <v>3</v>
+      </c>
+      <c r="G841">
+        <v>2</v>
+      </c>
+      <c r="H841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>848</v>
+      </c>
+      <c r="B842">
+        <v>2</v>
+      </c>
+      <c r="C842">
+        <v>0</v>
+      </c>
+      <c r="D842">
+        <v>3</v>
+      </c>
+      <c r="E842" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F842">
+        <v>2</v>
+      </c>
+      <c r="G842">
+        <v>2</v>
+      </c>
+      <c r="H842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>849</v>
+      </c>
+      <c r="B843">
+        <v>2</v>
+      </c>
+      <c r="C843">
+        <v>0</v>
+      </c>
+      <c r="D843">
+        <v>2</v>
+      </c>
+      <c r="E843" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F843">
+        <v>2</v>
+      </c>
+      <c r="G843">
+        <v>2</v>
+      </c>
+      <c r="H843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>850</v>
+      </c>
+      <c r="B844">
+        <v>1</v>
+      </c>
+      <c r="C844">
+        <v>0</v>
+      </c>
+      <c r="D844">
+        <v>1</v>
+      </c>
+      <c r="E844" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F844">
+        <v>3</v>
+      </c>
+      <c r="G844">
+        <v>2</v>
+      </c>
+      <c r="H844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>851</v>
+      </c>
+      <c r="B845">
+        <v>2</v>
+      </c>
+      <c r="C845">
+        <v>0</v>
+      </c>
+      <c r="D845">
+        <v>3</v>
+      </c>
+      <c r="E845" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F845">
+        <v>2</v>
+      </c>
+      <c r="G845">
+        <v>2</v>
+      </c>
+      <c r="H845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>852</v>
+      </c>
+      <c r="B846">
+        <v>3</v>
+      </c>
+      <c r="C846">
+        <v>0</v>
+      </c>
+      <c r="D846">
+        <v>2</v>
+      </c>
+      <c r="E846" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F846">
+        <v>2</v>
+      </c>
+      <c r="G846">
+        <v>2</v>
+      </c>
+      <c r="H846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>853</v>
+      </c>
+      <c r="B847">
+        <v>3</v>
+      </c>
+      <c r="C847">
+        <v>0</v>
+      </c>
+      <c r="D847">
+        <v>1</v>
+      </c>
+      <c r="E847" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F847">
+        <v>3</v>
+      </c>
+      <c r="G847">
+        <v>4</v>
+      </c>
+      <c r="H847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>854</v>
+      </c>
+      <c r="B848">
+        <v>2</v>
+      </c>
+      <c r="C848">
+        <v>0</v>
+      </c>
+      <c r="D848">
+        <v>1</v>
+      </c>
+      <c r="E848" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F848">
+        <v>3</v>
+      </c>
+      <c r="G848">
+        <v>3</v>
+      </c>
+      <c r="H848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>855</v>
+      </c>
+      <c r="B849">
+        <v>2</v>
+      </c>
+      <c r="C849">
+        <v>1</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F849">
+        <v>4</v>
+      </c>
+      <c r="G849">
+        <v>4</v>
+      </c>
+      <c r="H849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>856</v>
+      </c>
+      <c r="B850">
+        <v>1</v>
+      </c>
+      <c r="C850">
+        <v>0</v>
+      </c>
+      <c r="D850">
+        <v>1</v>
+      </c>
+      <c r="E850" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F850">
+        <v>2</v>
+      </c>
+      <c r="G850">
+        <v>2</v>
+      </c>
+      <c r="H850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>857</v>
+      </c>
+      <c r="B851">
+        <v>1</v>
+      </c>
+      <c r="C851">
+        <v>0</v>
+      </c>
+      <c r="D851">
+        <v>1</v>
+      </c>
+      <c r="E851" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F851">
+        <v>1</v>
+      </c>
+      <c r="G851">
+        <v>1</v>
+      </c>
+      <c r="H851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>858</v>
+      </c>
+      <c r="B852">
+        <v>1</v>
+      </c>
+      <c r="C852">
+        <v>1</v>
+      </c>
+      <c r="D852">
+        <v>1</v>
+      </c>
+      <c r="E852" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F852">
+        <v>3</v>
+      </c>
+      <c r="G852">
+        <v>2</v>
+      </c>
+      <c r="H852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>859</v>
+      </c>
+      <c r="B853">
+        <v>3</v>
+      </c>
+      <c r="C853">
+        <v>0</v>
+      </c>
+      <c r="D853">
+        <v>1</v>
+      </c>
+      <c r="E853" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F853">
+        <v>4</v>
+      </c>
+      <c r="G853">
+        <v>3</v>
+      </c>
+      <c r="H853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>860</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+      <c r="C854">
+        <v>0</v>
+      </c>
+      <c r="D854">
+        <v>1</v>
+      </c>
+      <c r="E854" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F854">
+        <v>0</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>861</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855">
+        <v>2</v>
+      </c>
+      <c r="E855" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F855">
+        <v>0</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>862</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+      <c r="C856">
+        <v>1</v>
+      </c>
+      <c r="D856">
+        <v>1</v>
+      </c>
+      <c r="E856" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F856">
+        <v>0</v>
+      </c>
+      <c r="G856">
+        <v>1</v>
+      </c>
+      <c r="H856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>863</v>
+      </c>
+      <c r="B857">
+        <v>3</v>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F857">
+        <v>3</v>
+      </c>
+      <c r="G857">
+        <v>3</v>
+      </c>
+      <c r="H857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>864</v>
+      </c>
+      <c r="B858">
+        <v>3</v>
+      </c>
+      <c r="C858">
+        <v>0</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F858">
+        <v>3</v>
+      </c>
+      <c r="G858">
+        <v>3</v>
+      </c>
+      <c r="H858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>865</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+      <c r="C859">
+        <v>0</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F859">
+        <v>2</v>
+      </c>
+      <c r="G859">
+        <v>2</v>
+      </c>
+      <c r="H859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>866</v>
+      </c>
+      <c r="B860">
+        <v>3</v>
+      </c>
+      <c r="C860">
+        <v>0</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F860">
+        <v>2</v>
+      </c>
+      <c r="G860">
+        <v>1</v>
+      </c>
+      <c r="H860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>867</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+      <c r="C861">
+        <v>1</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F861">
+        <v>1</v>
+      </c>
+      <c r="G861">
+        <v>1</v>
+      </c>
+      <c r="H861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>868</v>
+      </c>
+      <c r="B862">
+        <v>2</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F862">
+        <v>2</v>
+      </c>
+      <c r="G862">
+        <v>2</v>
+      </c>
+      <c r="H862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>869</v>
+      </c>
+      <c r="B863">
+        <v>1</v>
+      </c>
+      <c r="C863">
+        <v>1</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F863">
+        <v>3</v>
+      </c>
+      <c r="G863">
+        <v>2</v>
+      </c>
+      <c r="H863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>870</v>
+      </c>
+      <c r="B864">
+        <v>2</v>
+      </c>
+      <c r="C864">
+        <v>0</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F864">
+        <v>4</v>
+      </c>
+      <c r="G864">
+        <v>3</v>
+      </c>
+      <c r="H864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>871</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+      <c r="C865">
+        <v>0</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F865">
+        <v>3</v>
+      </c>
+      <c r="G865">
+        <v>2</v>
+      </c>
+      <c r="H865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>872</v>
+      </c>
+      <c r="B866">
+        <v>3</v>
+      </c>
+      <c r="C866">
+        <v>0</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F866">
+        <v>4</v>
+      </c>
+      <c r="G866">
+        <v>3</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>873</v>
+      </c>
+      <c r="B867">
+        <v>3</v>
+      </c>
+      <c r="C867">
+        <v>0</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F867">
+        <v>3</v>
+      </c>
+      <c r="G867">
+        <v>3</v>
+      </c>
+      <c r="H867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>874</v>
+      </c>
+      <c r="B868">
+        <v>5</v>
+      </c>
+      <c r="C868">
+        <v>0</v>
+      </c>
+      <c r="D868">
+        <v>2</v>
+      </c>
+      <c r="E868" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F868">
+        <v>2</v>
+      </c>
+      <c r="G868">
+        <v>3</v>
+      </c>
+      <c r="H868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>875</v>
+      </c>
+      <c r="B869">
+        <v>5</v>
+      </c>
+      <c r="C869">
+        <v>0</v>
+      </c>
+      <c r="D869">
+        <v>2</v>
+      </c>
+      <c r="E869" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F869">
+        <v>2</v>
+      </c>
+      <c r="G869">
+        <v>3</v>
+      </c>
+      <c r="H869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>876</v>
+      </c>
+      <c r="B870">
+        <v>5</v>
+      </c>
+      <c r="C870">
+        <v>0</v>
+      </c>
+      <c r="D870">
+        <v>2</v>
+      </c>
+      <c r="E870" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F870">
+        <v>2</v>
+      </c>
+      <c r="G870">
+        <v>3</v>
+      </c>
+      <c r="H870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>877</v>
+      </c>
+      <c r="B871">
+        <v>4</v>
+      </c>
+      <c r="C871">
+        <v>0</v>
+      </c>
+      <c r="D871">
+        <v>2</v>
+      </c>
+      <c r="E871" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F871">
+        <v>3</v>
+      </c>
+      <c r="G871">
+        <v>3</v>
+      </c>
+      <c r="H871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>878</v>
+      </c>
+      <c r="B872">
+        <v>4</v>
+      </c>
+      <c r="C872">
+        <v>0</v>
+      </c>
+      <c r="D872">
+        <v>1</v>
+      </c>
+      <c r="E872" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F872">
+        <v>3</v>
+      </c>
+      <c r="G872">
+        <v>3</v>
+      </c>
+      <c r="H872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>879</v>
+      </c>
+      <c r="B873">
+        <v>4</v>
+      </c>
+      <c r="C873">
+        <v>0</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F873">
+        <v>3</v>
+      </c>
+      <c r="G873">
+        <v>3</v>
+      </c>
+      <c r="H873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>880</v>
+      </c>
+      <c r="B874">
+        <v>2</v>
+      </c>
+      <c r="C874">
+        <v>1</v>
+      </c>
+      <c r="D874">
+        <v>1</v>
+      </c>
+      <c r="E874" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F874">
+        <v>2</v>
+      </c>
+      <c r="G874">
+        <v>3</v>
+      </c>
+      <c r="H874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>881</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+      <c r="C875">
+        <v>0</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F875">
+        <v>4</v>
+      </c>
+      <c r="G875">
+        <v>3</v>
+      </c>
+      <c r="H875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>882</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876">
+        <v>0</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+      <c r="E876" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F876">
+        <v>4</v>
+      </c>
+      <c r="G876">
+        <v>3</v>
+      </c>
+      <c r="H876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>883</v>
+      </c>
+      <c r="B877">
+        <v>3</v>
+      </c>
+      <c r="C877">
+        <v>1</v>
+      </c>
+      <c r="D877">
+        <v>2</v>
+      </c>
+      <c r="E877" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F877">
+        <v>4</v>
+      </c>
+      <c r="G877">
+        <v>3</v>
+      </c>
+      <c r="H877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>884</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+      <c r="C878">
+        <v>0</v>
+      </c>
+      <c r="D878">
+        <v>4</v>
+      </c>
+      <c r="E878" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F878">
+        <v>4</v>
+      </c>
+      <c r="G878">
+        <v>3</v>
+      </c>
+      <c r="H878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>885</v>
+      </c>
+      <c r="B879">
+        <v>3</v>
+      </c>
+      <c r="C879">
+        <v>0</v>
+      </c>
+      <c r="D879">
+        <v>4</v>
+      </c>
+      <c r="E879" s="1">
+        <v>1</v>
+      </c>
+      <c r="F879">
+        <v>4</v>
+      </c>
+      <c r="G879">
+        <v>3</v>
+      </c>
+      <c r="H879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>886</v>
+      </c>
+      <c r="B880">
+        <v>2</v>
+      </c>
+      <c r="C880">
+        <v>0</v>
+      </c>
+      <c r="D880">
+        <v>1</v>
+      </c>
+      <c r="E880" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F880">
+        <v>4</v>
+      </c>
+      <c r="G880">
+        <v>3</v>
+      </c>
+      <c r="H880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>887</v>
+      </c>
+      <c r="B881">
+        <v>2</v>
+      </c>
+      <c r="C881">
+        <v>0</v>
+      </c>
+      <c r="D881">
+        <v>1</v>
+      </c>
+      <c r="E881" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F881">
+        <v>3</v>
+      </c>
+      <c r="G881">
+        <v>2</v>
+      </c>
+      <c r="H881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>888</v>
+      </c>
+      <c r="B882">
+        <v>3</v>
+      </c>
+      <c r="C882">
+        <v>0</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F882">
+        <v>3</v>
+      </c>
+      <c r="G882">
+        <v>2</v>
+      </c>
+      <c r="H882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>889</v>
+      </c>
+      <c r="B883">
+        <v>1</v>
+      </c>
+      <c r="C883">
+        <v>0</v>
+      </c>
+      <c r="D883">
+        <v>1</v>
+      </c>
+      <c r="E883" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F883">
+        <v>2</v>
+      </c>
+      <c r="G883">
+        <v>2</v>
+      </c>
+      <c r="H883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>890</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884">
+        <v>0</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F884">
+        <v>2</v>
+      </c>
+      <c r="G884">
+        <v>3</v>
+      </c>
+      <c r="H884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>891</v>
+      </c>
+      <c r="B885">
+        <v>1</v>
+      </c>
+      <c r="C885">
+        <v>0</v>
+      </c>
+      <c r="D885">
+        <v>2</v>
+      </c>
+      <c r="E885" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F885">
+        <v>3</v>
+      </c>
+      <c r="G885">
+        <v>3</v>
+      </c>
+      <c r="H885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>892</v>
+      </c>
+      <c r="B886">
+        <v>2</v>
+      </c>
+      <c r="C886">
+        <v>0</v>
+      </c>
+      <c r="D886">
+        <v>1</v>
+      </c>
+      <c r="E886" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F886">
+        <v>2</v>
+      </c>
+      <c r="G886">
+        <v>3</v>
+      </c>
+      <c r="H886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>893</v>
+      </c>
+      <c r="B887">
+        <v>4</v>
+      </c>
+      <c r="C887">
+        <v>0</v>
+      </c>
+      <c r="D887">
+        <v>1</v>
+      </c>
+      <c r="E887" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F887">
+        <v>3</v>
+      </c>
+      <c r="G887">
+        <v>4</v>
+      </c>
+      <c r="H887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>894</v>
+      </c>
+      <c r="B888">
+        <v>3</v>
+      </c>
+      <c r="C888">
+        <v>0</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
+      </c>
+      <c r="E888" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F888">
+        <v>3</v>
+      </c>
+      <c r="G888">
+        <v>3</v>
+      </c>
+      <c r="H888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>895</v>
+      </c>
+      <c r="B889">
+        <v>1</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+      <c r="D889">
+        <v>1</v>
+      </c>
+      <c r="E889" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F889">
+        <v>2</v>
+      </c>
+      <c r="G889">
+        <v>3</v>
+      </c>
+      <c r="H889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>896</v>
+      </c>
+      <c r="B890">
+        <v>1</v>
+      </c>
+      <c r="C890">
+        <v>1</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F890">
+        <v>3</v>
+      </c>
+      <c r="G890">
+        <v>3</v>
+      </c>
+      <c r="H890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>897</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+      <c r="C891">
+        <v>0</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F891">
+        <v>2</v>
+      </c>
+      <c r="G891">
+        <v>3</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>898</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892">
+        <v>0</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F892">
+        <v>3</v>
+      </c>
+      <c r="G892">
+        <v>3</v>
+      </c>
+      <c r="H892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>899</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="C893">
+        <v>0</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F893">
+        <v>3</v>
+      </c>
+      <c r="G893">
+        <v>3</v>
+      </c>
+      <c r="H893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>900</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+      <c r="C894">
+        <v>0</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F894">
+        <v>1</v>
+      </c>
+      <c r="G894">
+        <v>2</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>901</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+      <c r="C895">
+        <v>0</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F895">
+        <v>3</v>
+      </c>
+      <c r="G895">
+        <v>3</v>
+      </c>
+      <c r="H895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>902</v>
+      </c>
+      <c r="B896">
+        <v>2</v>
+      </c>
+      <c r="C896">
+        <v>0</v>
+      </c>
+      <c r="D896">
+        <v>3</v>
+      </c>
+      <c r="E896" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F896">
+        <v>4</v>
+      </c>
+      <c r="G896">
+        <v>3</v>
+      </c>
+      <c r="H896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>903</v>
+      </c>
+      <c r="B897">
+        <v>2</v>
+      </c>
+      <c r="C897">
+        <v>0</v>
+      </c>
+      <c r="D897">
+        <v>2</v>
+      </c>
+      <c r="E897" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F897">
+        <v>3</v>
+      </c>
+      <c r="G897">
+        <v>3</v>
+      </c>
+      <c r="H897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>904</v>
+      </c>
+      <c r="B898">
+        <v>3</v>
+      </c>
+      <c r="C898">
+        <v>0</v>
+      </c>
+      <c r="D898">
+        <v>1</v>
+      </c>
+      <c r="E898" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F898">
+        <v>3</v>
+      </c>
+      <c r="G898">
+        <v>2</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>905</v>
+      </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
+      <c r="C899">
+        <v>0</v>
+      </c>
+      <c r="D899">
+        <v>1</v>
+      </c>
+      <c r="E899" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F899">
+        <v>3</v>
+      </c>
+      <c r="G899">
+        <v>3</v>
+      </c>
+      <c r="H899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>906</v>
+      </c>
+      <c r="B900">
+        <v>3</v>
+      </c>
+      <c r="C900">
+        <v>0</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F900">
+        <v>3</v>
+      </c>
+      <c r="G900">
+        <v>3</v>
+      </c>
+      <c r="H900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>907</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+      <c r="C901">
+        <v>1</v>
+      </c>
+      <c r="D901">
+        <v>1</v>
+      </c>
+      <c r="E901" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F901">
+        <v>3</v>
+      </c>
+      <c r="G901">
+        <v>3</v>
+      </c>
+      <c r="H901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>908</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>0</v>
+      </c>
+      <c r="D902">
+        <v>1</v>
+      </c>
+      <c r="E902" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F902">
+        <v>3</v>
+      </c>
+      <c r="G902">
+        <v>3</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>909</v>
+      </c>
+      <c r="B903">
+        <v>2</v>
+      </c>
+      <c r="C903">
+        <v>0</v>
+      </c>
+      <c r="D903">
+        <v>1</v>
+      </c>
+      <c r="E903" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F903">
+        <v>3</v>
+      </c>
+      <c r="G903">
+        <v>3</v>
+      </c>
+      <c r="H903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>910</v>
+      </c>
+      <c r="B904">
+        <v>3</v>
+      </c>
+      <c r="C904">
+        <v>0</v>
+      </c>
+      <c r="D904">
+        <v>1</v>
+      </c>
+      <c r="E904" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F904">
+        <v>3</v>
+      </c>
+      <c r="G904">
+        <v>3</v>
+      </c>
+      <c r="H904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>911</v>
+      </c>
+      <c r="B905">
+        <v>3</v>
+      </c>
+      <c r="C905">
+        <v>0</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+      <c r="E905" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F905">
+        <v>2</v>
+      </c>
+      <c r="G905">
+        <v>3</v>
+      </c>
+      <c r="H905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>912</v>
+      </c>
+      <c r="B906">
+        <v>3</v>
+      </c>
+      <c r="C906">
+        <v>0</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F906">
+        <v>3</v>
+      </c>
+      <c r="G906">
+        <v>3</v>
+      </c>
+      <c r="H906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>913</v>
+      </c>
+      <c r="B907">
+        <v>1</v>
+      </c>
+      <c r="C907">
+        <v>0</v>
+      </c>
+      <c r="D907">
+        <v>1</v>
+      </c>
+      <c r="E907" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F907">
+        <v>3</v>
+      </c>
+      <c r="G907">
+        <v>2</v>
+      </c>
+      <c r="H907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>914</v>
+      </c>
+      <c r="B908">
+        <v>0</v>
+      </c>
+      <c r="C908">
+        <v>1</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F908">
+        <v>1</v>
+      </c>
+      <c r="G908">
+        <v>1</v>
+      </c>
+      <c r="H908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>915</v>
+      </c>
+      <c r="B909">
+        <v>2</v>
+      </c>
+      <c r="C909">
+        <v>1</v>
+      </c>
+      <c r="D909">
+        <v>2</v>
+      </c>
+      <c r="E909" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F909">
+        <v>4</v>
+      </c>
+      <c r="G909">
+        <v>3</v>
+      </c>
+      <c r="H909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>916</v>
+      </c>
+      <c r="B910">
+        <v>1</v>
+      </c>
+      <c r="C910">
+        <v>0</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F910">
+        <v>1</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+      <c r="H910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>917</v>
+      </c>
+      <c r="B911">
+        <v>0</v>
+      </c>
+      <c r="C911">
+        <v>0</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>918</v>
+      </c>
+      <c r="B912">
+        <v>0</v>
+      </c>
+      <c r="C912">
+        <v>0</v>
+      </c>
+      <c r="D912">
+        <v>1</v>
+      </c>
+      <c r="E912" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>919</v>
+      </c>
+      <c r="B913">
+        <v>0</v>
+      </c>
+      <c r="C913">
+        <v>0</v>
+      </c>
+      <c r="D913">
+        <v>1</v>
+      </c>
+      <c r="E913" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F913">
+        <v>1</v>
+      </c>
+      <c r="G913">
+        <v>1</v>
+      </c>
+      <c r="H913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>920</v>
+      </c>
+      <c r="B914">
+        <v>1</v>
+      </c>
+      <c r="C914">
+        <v>0</v>
+      </c>
+      <c r="D914">
+        <v>1</v>
+      </c>
+      <c r="E914" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="H914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>921</v>
+      </c>
+      <c r="B915">
+        <v>2</v>
+      </c>
+      <c r="C915">
+        <v>0</v>
+      </c>
+      <c r="D915">
+        <v>1</v>
+      </c>
+      <c r="E915" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="G915">
+        <v>1</v>
+      </c>
+      <c r="H915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>922</v>
+      </c>
+      <c r="B916">
+        <v>0</v>
+      </c>
+      <c r="C916">
+        <v>1</v>
+      </c>
+      <c r="D916">
+        <v>1</v>
+      </c>
+      <c r="E916" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F916">
+        <v>0</v>
+      </c>
+      <c r="G916">
+        <v>1</v>
+      </c>
+      <c r="H916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>923</v>
+      </c>
+      <c r="B917">
+        <v>0</v>
+      </c>
+      <c r="C917">
+        <v>0</v>
+      </c>
+      <c r="D917">
+        <v>1</v>
+      </c>
+      <c r="E917" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F917">
+        <v>0</v>
+      </c>
+      <c r="G917">
+        <v>1</v>
+      </c>
+      <c r="H917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>924</v>
+      </c>
+      <c r="B918">
+        <v>0</v>
+      </c>
+      <c r="C918">
+        <v>1</v>
+      </c>
+      <c r="D918">
+        <v>1</v>
+      </c>
+      <c r="E918" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+      <c r="H918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>925</v>
+      </c>
+      <c r="B919">
+        <v>1</v>
+      </c>
+      <c r="C919">
+        <v>0</v>
+      </c>
+      <c r="D919">
+        <v>1</v>
+      </c>
+      <c r="E919" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F919">
+        <v>1</v>
+      </c>
+      <c r="G919">
+        <v>1</v>
+      </c>
+      <c r="H919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>926</v>
+      </c>
+      <c r="B920">
+        <v>2</v>
+      </c>
+      <c r="C920">
+        <v>0</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F920">
+        <v>0</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>927</v>
+      </c>
+      <c r="B921">
+        <v>0</v>
+      </c>
+      <c r="C921">
+        <v>1</v>
+      </c>
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="E921" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F921">
+        <v>2</v>
+      </c>
+      <c r="G921">
+        <v>1</v>
+      </c>
+      <c r="H921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>928</v>
+      </c>
+      <c r="B922">
+        <v>1</v>
+      </c>
+      <c r="C922">
+        <v>0</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+      <c r="E922" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+      <c r="H922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>929</v>
+      </c>
+      <c r="B923">
+        <v>0</v>
+      </c>
+      <c r="C923">
+        <v>1</v>
+      </c>
+      <c r="D923">
+        <v>1</v>
+      </c>
+      <c r="E923" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+      <c r="H923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>930</v>
+      </c>
+      <c r="B924">
+        <v>3</v>
+      </c>
+      <c r="C924">
+        <v>0</v>
+      </c>
+      <c r="D924">
+        <v>1</v>
+      </c>
+      <c r="E924" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F924">
+        <v>3</v>
+      </c>
+      <c r="G924">
+        <v>2</v>
+      </c>
+      <c r="H924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>931</v>
+      </c>
+      <c r="B925">
+        <v>2</v>
+      </c>
+      <c r="C925">
+        <v>0</v>
+      </c>
+      <c r="D925">
+        <v>1</v>
+      </c>
+      <c r="E925" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F925">
+        <v>4</v>
+      </c>
+      <c r="G925">
+        <v>3</v>
+      </c>
+      <c r="H925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>932</v>
+      </c>
+      <c r="B926">
+        <v>1</v>
+      </c>
+      <c r="C926">
+        <v>0</v>
+      </c>
+      <c r="D926">
+        <v>1</v>
+      </c>
+      <c r="E926" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F926">
+        <v>2</v>
+      </c>
+      <c r="G926">
+        <v>2</v>
+      </c>
+      <c r="H926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>933</v>
+      </c>
+      <c r="B927">
+        <v>2</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+      <c r="D927">
+        <v>1</v>
+      </c>
+      <c r="E927" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F927">
+        <v>3</v>
+      </c>
+      <c r="G927">
+        <v>3</v>
+      </c>
+      <c r="H927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>934</v>
+      </c>
+      <c r="B928">
+        <v>3</v>
+      </c>
+      <c r="C928">
+        <v>0</v>
+      </c>
+      <c r="D928">
+        <v>3</v>
+      </c>
+      <c r="E928" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F928">
+        <v>3</v>
+      </c>
+      <c r="G928">
+        <v>3</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>935</v>
+      </c>
+      <c r="B929">
+        <v>3</v>
+      </c>
+      <c r="C929">
+        <v>0</v>
+      </c>
+      <c r="D929">
+        <v>1</v>
+      </c>
+      <c r="E929" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F929">
+        <v>3</v>
+      </c>
+      <c r="G929">
+        <v>3</v>
+      </c>
+      <c r="H929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>936</v>
+      </c>
+      <c r="B930">
+        <v>3</v>
+      </c>
+      <c r="C930">
+        <v>0</v>
+      </c>
+      <c r="D930">
+        <v>1</v>
+      </c>
+      <c r="E930" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F930">
+        <v>4</v>
+      </c>
+      <c r="G930">
+        <v>4</v>
+      </c>
+      <c r="H930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>937</v>
+      </c>
+      <c r="B931">
+        <v>4</v>
+      </c>
+      <c r="C931">
+        <v>0</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="E931" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F931">
+        <v>3</v>
+      </c>
+      <c r="G931">
+        <v>3</v>
+      </c>
+      <c r="H931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>938</v>
+      </c>
+      <c r="B932">
+        <v>2</v>
+      </c>
+      <c r="C932">
+        <v>0</v>
+      </c>
+      <c r="D932">
+        <v>1</v>
+      </c>
+      <c r="E932" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F932">
+        <v>2</v>
+      </c>
+      <c r="G932">
+        <v>3</v>
+      </c>
+      <c r="H932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>939</v>
+      </c>
+      <c r="B933">
+        <v>3</v>
+      </c>
+      <c r="C933">
+        <v>0</v>
+      </c>
+      <c r="D933">
+        <v>1</v>
+      </c>
+      <c r="E933" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F933">
+        <v>3</v>
+      </c>
+      <c r="G933">
+        <v>3</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>940</v>
+      </c>
+      <c r="B934">
+        <v>1</v>
+      </c>
+      <c r="C934">
+        <v>1</v>
+      </c>
+      <c r="D934">
+        <v>1</v>
+      </c>
+      <c r="E934" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F934">
+        <v>3</v>
+      </c>
+      <c r="G934">
+        <v>3</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>941</v>
+      </c>
+      <c r="B935">
+        <v>5</v>
+      </c>
+      <c r="C935">
+        <v>0</v>
+      </c>
+      <c r="D935">
+        <v>1</v>
+      </c>
+      <c r="E935" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F935">
+        <v>4</v>
+      </c>
+      <c r="G935">
+        <v>3</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>942</v>
+      </c>
+      <c r="B936">
+        <v>5</v>
+      </c>
+      <c r="C936">
+        <v>0</v>
+      </c>
+      <c r="D936">
+        <v>1</v>
+      </c>
+      <c r="E936" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F936">
+        <v>3</v>
+      </c>
+      <c r="G936">
+        <v>3</v>
+      </c>
+      <c r="H936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>943</v>
+      </c>
+      <c r="B937">
+        <v>3</v>
+      </c>
+      <c r="C937">
+        <v>0</v>
+      </c>
+      <c r="D937">
+        <v>1</v>
+      </c>
+      <c r="E937" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F937">
+        <v>3</v>
+      </c>
+      <c r="G937">
+        <v>3</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>944</v>
+      </c>
+      <c r="B938">
+        <v>4</v>
+      </c>
+      <c r="C938">
+        <v>0</v>
+      </c>
+      <c r="D938">
+        <v>1</v>
+      </c>
+      <c r="E938" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F938">
+        <v>3</v>
+      </c>
+      <c r="G938">
+        <v>3</v>
+      </c>
+      <c r="H938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>945</v>
+      </c>
+      <c r="B939">
+        <v>3</v>
+      </c>
+      <c r="C939">
+        <v>1</v>
+      </c>
+      <c r="D939">
+        <v>1</v>
+      </c>
+      <c r="E939" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F939">
+        <v>3</v>
+      </c>
+      <c r="G939">
+        <v>3</v>
+      </c>
+      <c r="H939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>946</v>
+      </c>
+      <c r="B940">
+        <v>3</v>
+      </c>
+      <c r="C940">
+        <v>1</v>
+      </c>
+      <c r="D940">
+        <v>1</v>
+      </c>
+      <c r="E940" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F940">
+        <v>3</v>
+      </c>
+      <c r="G940">
+        <v>4</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>947</v>
+      </c>
+      <c r="B941">
+        <v>3</v>
+      </c>
+      <c r="C941">
+        <v>0</v>
+      </c>
+      <c r="D941">
+        <v>1</v>
+      </c>
+      <c r="E941" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F941">
+        <v>3</v>
+      </c>
+      <c r="G941">
+        <v>3</v>
+      </c>
+      <c r="H941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>948</v>
+      </c>
+      <c r="B942">
+        <v>3</v>
+      </c>
+      <c r="C942">
+        <v>0</v>
+      </c>
+      <c r="D942">
+        <v>1</v>
+      </c>
+      <c r="E942" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F942">
+        <v>3</v>
+      </c>
+      <c r="G942">
+        <v>3</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>949</v>
+      </c>
+      <c r="B943">
+        <v>3</v>
+      </c>
+      <c r="C943">
+        <v>0</v>
+      </c>
+      <c r="D943">
+        <v>1</v>
+      </c>
+      <c r="E943" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F943">
+        <v>3</v>
+      </c>
+      <c r="G943">
+        <v>3</v>
+      </c>
+      <c r="H943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>950</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+      <c r="C944">
+        <v>0</v>
+      </c>
+      <c r="D944">
+        <v>1</v>
+      </c>
+      <c r="E944" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F944">
+        <v>3</v>
+      </c>
+      <c r="G944">
+        <v>3</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>951</v>
+      </c>
+      <c r="B945">
+        <v>3</v>
+      </c>
+      <c r="C945">
+        <v>0</v>
+      </c>
+      <c r="D945">
+        <v>1</v>
+      </c>
+      <c r="E945" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F945">
+        <v>3</v>
+      </c>
+      <c r="G945">
+        <v>3</v>
+      </c>
+      <c r="H945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>952</v>
+      </c>
+      <c r="B946">
+        <v>2</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
+      </c>
+      <c r="D946">
+        <v>1</v>
+      </c>
+      <c r="E946" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F946">
+        <v>3</v>
+      </c>
+      <c r="G946">
+        <v>3</v>
+      </c>
+      <c r="H946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>953</v>
+      </c>
+      <c r="B947">
+        <v>2</v>
+      </c>
+      <c r="C947">
+        <v>0</v>
+      </c>
+      <c r="D947">
+        <v>1</v>
+      </c>
+      <c r="E947" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F947">
+        <v>4</v>
+      </c>
+      <c r="G947">
+        <v>3</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>954</v>
+      </c>
+      <c r="B948">
+        <v>4</v>
+      </c>
+      <c r="C948">
+        <v>1</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F948">
+        <v>5</v>
+      </c>
+      <c r="G948">
+        <v>5</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>955</v>
+      </c>
+      <c r="B949">
+        <v>3</v>
+      </c>
+      <c r="C949">
+        <v>0</v>
+      </c>
+      <c r="D949">
+        <v>1</v>
+      </c>
+      <c r="E949" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F949">
+        <v>3</v>
+      </c>
+      <c r="G949">
+        <v>3</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>956</v>
+      </c>
+      <c r="B950">
+        <v>4</v>
+      </c>
+      <c r="C950">
+        <v>0</v>
+      </c>
+      <c r="D950">
+        <v>1</v>
+      </c>
+      <c r="E950" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+      <c r="G950">
+        <v>2</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>957</v>
+      </c>
+      <c r="B951">
+        <v>4</v>
+      </c>
+      <c r="C951">
+        <v>0</v>
+      </c>
+      <c r="D951">
+        <v>1</v>
+      </c>
+      <c r="E951" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F951">
+        <v>2</v>
+      </c>
+      <c r="G951">
+        <v>2</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>958</v>
+      </c>
+      <c r="B952">
+        <v>1</v>
+      </c>
+      <c r="C952">
+        <v>0</v>
+      </c>
+      <c r="D952">
+        <v>1</v>
+      </c>
+      <c r="E952" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F952">
+        <v>3</v>
+      </c>
+      <c r="G952">
+        <v>3</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>959</v>
+      </c>
+      <c r="B953">
+        <v>2</v>
+      </c>
+      <c r="C953">
+        <v>1</v>
+      </c>
+      <c r="D953">
+        <v>1</v>
+      </c>
+      <c r="E953" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F953">
+        <v>4</v>
+      </c>
+      <c r="G953">
+        <v>3</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>960</v>
+      </c>
+      <c r="B954">
+        <v>4</v>
+      </c>
+      <c r="C954">
+        <v>0</v>
+      </c>
+      <c r="D954">
+        <v>1</v>
+      </c>
+      <c r="E954" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F954">
+        <v>3</v>
+      </c>
+      <c r="G954">
+        <v>3</v>
+      </c>
+      <c r="H954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>961</v>
+      </c>
+      <c r="B955">
+        <v>3</v>
+      </c>
+      <c r="C955">
+        <v>0</v>
+      </c>
+      <c r="D955">
+        <v>1</v>
+      </c>
+      <c r="E955" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F955">
+        <v>3</v>
+      </c>
+      <c r="G955">
+        <v>3</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>962</v>
+      </c>
+      <c r="B956">
+        <v>3</v>
+      </c>
+      <c r="C956">
+        <v>0</v>
+      </c>
+      <c r="D956">
+        <v>1</v>
+      </c>
+      <c r="E956" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F956">
+        <v>4</v>
+      </c>
+      <c r="G956">
+        <v>3</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>963</v>
+      </c>
+      <c r="B957">
+        <v>3</v>
+      </c>
+      <c r="C957">
+        <v>1</v>
+      </c>
+      <c r="D957">
+        <v>2</v>
+      </c>
+      <c r="E957" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F957">
+        <v>3</v>
+      </c>
+      <c r="G957">
+        <v>2</v>
+      </c>
+      <c r="H957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>964</v>
+      </c>
+      <c r="B958">
+        <v>3</v>
+      </c>
+      <c r="C958">
+        <v>0</v>
+      </c>
+      <c r="D958">
+        <v>1</v>
+      </c>
+      <c r="E958" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F958">
+        <v>3</v>
+      </c>
+      <c r="G958">
+        <v>2</v>
+      </c>
+      <c r="H958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>965</v>
+      </c>
+      <c r="B959">
+        <v>2</v>
+      </c>
+      <c r="C959">
+        <v>0</v>
+      </c>
+      <c r="D959">
+        <v>1</v>
+      </c>
+      <c r="E959" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F959">
+        <v>5</v>
+      </c>
+      <c r="G959">
+        <v>4</v>
+      </c>
+      <c r="H959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>966</v>
+      </c>
+      <c r="B960">
+        <v>3</v>
+      </c>
+      <c r="C960">
+        <v>0</v>
+      </c>
+      <c r="D960">
+        <v>1</v>
+      </c>
+      <c r="E960" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F960">
+        <v>3</v>
+      </c>
+      <c r="G960">
+        <v>3</v>
+      </c>
+      <c r="H960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>967</v>
+      </c>
+      <c r="B961">
+        <v>4</v>
+      </c>
+      <c r="C961">
+        <v>1</v>
+      </c>
+      <c r="D961">
+        <v>1</v>
+      </c>
+      <c r="E961" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F961">
+        <v>4</v>
+      </c>
+      <c r="G961">
+        <v>3</v>
+      </c>
+      <c r="H961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>968</v>
+      </c>
+      <c r="B962">
+        <v>4</v>
+      </c>
+      <c r="C962">
+        <v>1</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F962">
+        <v>4</v>
+      </c>
+      <c r="G962">
+        <v>3</v>
+      </c>
+      <c r="H962">
         <v>0</v>
       </c>
     </row>
